--- a/server/News18.xlsx
+++ b/server/News18.xlsx
@@ -28,202 +28,202 @@
     <t>URL</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ganesh Chaturthi 2023: 5 Easy Homemade Modak Recipes for Vinayaka Chaturthi! </t>
-  </si>
-  <si>
-    <t>Ganesh Chaturthi, the festival celebrating the birth of Lord Ganesha, is a time of joy, devotion, and delicious treats. This year the festival will be celebrated from Tuesday, September 19 to Thursday, September 28. Among the many customs and rituals associated with this festival, one of the most cherished is the offering of modaks to Lord Ganesha. Modaks, sweet dumplings with a variety of fillings and flavours, are believed to be Lord Ganesha’s favourite treat. With the much-awaited festival just around the corner, let’s explore five delightful modak recipes that you can prepare at home in a few easy steps.Ukadiche Modak, also known as steamed modaks, is one of the classic and highly favoured varieties of modak.Ingredients:Steps:For those with a sweet tooth and a love for chocolate, Chocolate Modak is a modern twist on the traditional favourite.Ingredients:Steps:Rose Gulkand Modak is a fragrant and unique variation of this beloved treat.Ingredients:Steps:Fried Modak, also known as Talniche Modak, offers a delightful contrast to the steamed versions.Ingredients:Steps:For those looking to enjoy the traditional flavours of modak without the added sweetener, sugar-free Modak is the perfect choice. This recipe replaces traditional sugar with natural sweeteners.Ingredients:Steps:</t>
-  </si>
-  <si>
-    <t>lifestyle</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/lifestyle/ganesh-chaturthi-2023-5-easy-homemade-modak-recipes-for-vinayaka-chaturthi-8573560.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nipah Virus Brings Back Covid-like Scare; Schools Shut in Kerala, Rajasthan And Karnataka on Alert </t>
-  </si>
-  <si>
-    <t>One more case of Nipah infection has been confirmed in Kerala’s Kozhikode district. State health minister Veena George’s office said that a 39-year-old man has been confirmed with the Nipah virus after his samples turned positive.He was under observation in a hospital. He had sought treatment at a private hospital where Nipah-positive affected were treated for other ailments earlier, it said in a statement on Friday. With this, the total number of Nipah cases has gone up to six in Kozhikode.• The ICMR has delivered the antibody requested by Kerala to combat the deadly virus. A mobile laboratory was also sent to ground zero to enable the state to test samples.• The ICMR’s National Institute of Virology (NIV) in Pune sent its mobile BSL-3 (Biosafety Level-3) laboratory to Kozhikode to test samples for the virus in the district itself after five cases, including two deaths, were recorded.• A five-member central team comprising experts from the National Centre for Disease Control, RML Hospital and NIMHANS has been stationed in Kerala to take stock of the situation and assist the state government in the management of the Nipah infection.• Apparently, samples will also be collected from bats to check for the virus’ presence.• Additionally, a fully-equipped mobile virology testing laboratory of the Rajiv Gandhi Centre for Biotechnology (RGCB) was dispatched to the northern Kerala district to strengthen virus testing and detection.• The district administration has already declared a holiday for educational institutions in Kozhikode on Saturday (September 16), in addition to Thursday and Friday.• George said the state has been vigilant and Kozhikode’s neighbouring districts — Kannur, Wayanad and Malappuram — should also be cautious.• Around 11 wards in Kozhikode district were declared as containment zones till Wednesday evening.ALSO READ | ‘Check Fruits Coming from Kerala’: Alert in Karnataka Amid Nipah Virus, Hospitals Prepped• The Rajasthan government on Thursday directed medical officials to remain “alert” regarding any Nipah outbreak in the wake of cases being reported from Kerala’s Kozhikode district.• The medical and health services department director has issued an advisory in this regard to the principals of all medical colleges and chief medical and health officers of all districts. The department has also issued an advisory for health workers.(With inputs from PTI)</t>
+    <t xml:space="preserve"> Shubman Gill Tests Positive For Dengue, Doubtful For India's World Cup Opener Against Australia </t>
+  </si>
+  <si>
+    <t>The Indian team’s worries ahead of its opening World Cup game against Australia has been compounded by in-form Shubman Gill’s health issues and the batter is a doubtful starter for Sunday’s match.Gill, India’s most prolific batter in ODIs in recent times, is reportedly down with high fever and has tested positive for dengue.“Shubman has had high fever since landing in Chennai. His tests are being done. He will have tests on Friday and a call will be taken on his participation in opening game,” a BCCI source privy to team developments told on the condition of anonymity.Those in the know said that the Indian team management is monitoring Gill’s progress and a call on his availability will be taken after another round of tests on Friday.READ: India vs Australia, World Cup: Hardik Pandya Returns Refreshed, Fires on All Cylinders in NetsPhysical recovery of dengue patients vary and it normally takes around 7-10 days to be up and match ready.“Let’s not jump the gun. If it’s normal viral fever, he could play on antibiotics but it’s completely the medical team’s call,” the source said.In the case that Gill is dropped due to the illness, it opens up opportunities for both KL Rahul and Ishan Kishan, one of whom will be chosen to open the innings with Rohit Sharma.But, Gill’s absence will most definitely deliver a gut punch to India’s batting prowess. The swashbuckling youngster has been the Indian side’s most reliable scorer this year and has proven himself as one of the best openers in world cricket at the moment with an average of over 70 runs in ODIs this year.“He’s under the weather, the medical team is closely monitoring him. We are hoping he gets better soon. We will have to wait for more updates from the medical team,” said a BCCI spokesperson.India at Asian Games: FULL COVERAGE | MEDAL TALLY | RESULTS | SCHEDULE</t>
+  </si>
+  <si>
+    <t>cricketnext</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/cricketnext/shubman-gill-down-with-fever-doubtful-for-indias-world-cup-opener-against-australia-report-8605123.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shraddha Kapoor, Kapil Sharma, Huma Qureshi, Hina Khan Summoned By ED In Mahadev Betting App Case </t>
+  </si>
+  <si>
+    <t>Comedian Kapil Sharma, Bollywood actors Shraddha Kapoor and Huma Qureshi as well as television star Hina Khan have been summoned by the Enforcement Directorate (ED) in connection with the Mahadev betting app case. They were issued summons a day after the central agency summoned actor Ranbir Kapoor, and have been directed to appear before the ED on October 6.News18 previously reported that more than 17 Bollywood stars are under the scanner in the case.Mahadev app promoters Saurabh Chandrakar and Ravi Uppal allegedly used money earned from the betting to pay celebrities. According to ED sources, more than a dozen A-listers, including Bollywood and Tollywood actors as well as sportspersons, are under the scanner. Ranbir Kapoor is allegedly the highest paid star among these names and advertised for the app on social media.More than 100 influencers, who promoted the app, will eventually be summoned by the central agency. Moreover, more than 14 celebrities, who attended a wedding event organised by the app promoters in Dubai, will also be summoned.Meanwhile, News18 learned earlier in the evening that Ranbir’s team reached out to the ED and requested for two weeks’ time to appear before the agency. The ED has “not confirmed any communication yet” with his team.A source also said Ranbir has not been summoned as an accused. “Ranbir Kapoor has been summoned to understand the betting business transactions. At this point, he has not been summoned as accused. His questioning is important to know his knowledge about the money sources he received. It will possibly indicate the plans of the promoters and their association,” the source said .“Ranbir Kapoor may not be part of conspiracy but very important to understand the scam,” the source added.</t>
+  </si>
+  <si>
+    <t>movies</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/movies/kapil-sharma-huma-qureshi-and-hina-khan-summoned-by-ed-in-mahadev-betting-app-case-8604733.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wamiqa Gabbi Goes Bold for Sex Scenes In Khufiya, Creates Stir On Internet, Videos Go Viral </t>
+  </si>
+  <si>
+    <t>Wamiqa Gabbi has sent the internet into a frenzy quite literally, thanks to her steamy scenes in Vishal Bhardwaj’s latest Netflix movie Khufiya. In the movie, Wamiqa plays actor Ali Fazal’s wife, named Charu, who is clueless about her husband’s misdemeanours. Soon after Khufiya dropped on Netflix on Thursday, netizens began sharing Wamiqa’s steamy scenes on X, formerly known as Twitter. In one of the videos, Wamiqa’s Charu can be seen grooving to the popular song ‘Ye Jawani Hai Diwani’ in a sexy lingerie. While another video shows her sex scene with Ali Fazal. Sharing the video of Wamiqa’s dance, a user wrote, “Wamiqa Gabbi is so hot.” Another user wrote, “Vibe with Wamiqa Gabbi.”Wamiqa Gabbi is so hot  #WamiqaGabbipic.twitter.com/vcIRDEqtiw— GLAM SLOT (@GlamSlot) October 5, 2023Vibe with wamiqa Gabbi pic.twitter.com/2BbtKI4oZi— – (@Dusky4you) October 5, 2023Wamiqa has been getting immense praise for her bold and nuanced performance in Khufiya. News18 Showsha’s review of Khufiya read: “The performer who really stood out in Khufiya was Wamiqa. She was very good as a woman who was clueless in the beginning about her husband’s misdemeanours and later transforms to help Krishna Mehra (played by Tabu) in faraway South Dakota. An amazing arc that is bound to fetch her greater roles as we go along. Ali Fazal was not bad, really, torn between his love for his family and the dirty work he does for money, showering Charu with expensive jewellery.”Khufiya is a tale of love, loyalty, revenge and betrayal. It’s about a R&amp;AW agent who is on a mission to nab an individual, who is leaking confidential information from the department.With Tabu being the investigator of the case and Ali Fazal being her prime suspect, the story promises multiple layers of mystery behind the prime conspirator. Whether the identity of the supposed ‘traitor’ is as easy to find out, that’s for the viewers to determine.</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/movies/wamiqa-gabbi-goes-bold-for-sex-scenes-in-khufiya-creates-stir-on-internet-videos-go-viral-8605096.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Salman Khan ENDS 9-Year Feud With Arijit Singh; Singer Spotted at Tiger 3 Star's House, See Video </t>
+  </si>
+  <si>
+    <t>Bollywood superstar Salman Khan seems to have forgiven singer Arijit Singh after nine years. On Wednesday night, Arijit Singh was spotted exiting Salman’s Galaxy apartment in Mumbai. As soon as the video surfaced on the internet, fans began speculating if the duo finally buried hatchet after nearly a decade-long feud. The video was shared by a Salman Khan fan on X, formerly known as Twitter. Posting the clip, the fan wrote, “Arijit Singh Spotted at Salman Khan’s house Today. What’s happening??” Another fan wondered if the meeting took place for any musical collaboration in Salman’s upcoming movie Tiger 3 or his untitled film with Vishnuvardhan and Karan Johar.Arijit singh Spotted at #SalmanKhan's house Today. What's happening?? #Tiger3 #Tiger3Trailerpic.twitter.com/tLPKUnEN2p— MASS (@Freak4Salman) October 4, 2023Salman Khan and Arijit Singh’s ugly fight happened during an award function in 2014. Salman Khan was hosting the event when Arijit Singh came on the stage to receive the award. “Tu hai winner (You’re the winner)?” Salman told Arijit, who was dressed rather casually. To this, the singer replied, “Aap logon ne sula diya (You all put me to sleep).” Following this, Arijit’s songs were removed from Salman’s films including Bajrangi Bhaijaan, Kick and Sultan. In 2016, Arijit had issued a public apology to Salman, pleading him to retain his version of song in Sultan. The singer wrote in his post that he tried to apologise a number of times to Salman through text and mail but to no avail. “…you (Salman) are mistaken about the fact that I insulted you.” About Sultan’s song, he wrote, “I have sung enough songs sir. But I want to retire with at least one song of you keeping in my library. Please do not take away this feeling.”</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/movies/salman-khan-ends-9-year-feud-with-arijit-singh-singer-spotted-at-tiger-3-star-house-see-video-8603498.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shehnaaz Gill, Guru Randhawa Spark DATING Rumours, Pose Together On Red Carpet; See Pics, Video </t>
+  </si>
+  <si>
+    <t>Shehnaaz Gill and Guru Randhawa have sparked dating rumours after the singer attended the screening of the former Bigg Boss 13 contestant’s upcoming movie ‘Thank You For Coming’ on Tuesday night. Needless to say, Guru came to support Shehnaaz even as the duo posed together for the paparazzi on the red carpet. Shehnaaz couldn’t stop blushing as the paps teased her about her chemistry with the singer.For the premiere night, Shehnaaz dazzled in a stunning pink dress, while Guru looked dapper in an all-black ensemble. Their joint appearance on the red carpet left fans wondering if the two were dating. One user wrote, “The only man she looks good with after Sidharth Shukla.” Another one said, “Wow yaar Guru with Sana.” “Finally GurNaaz meet up,” wrote a third user.A post shared by Viral Bhayani (@viralbhayani)Guru had taken the internet by storm after he dropped a video with Shehnaaz on Instagram in October last year, where the two danced together at a Diwali party. Calling Shehnaaz India’s favourite, Guru had written in the caption, “With India’s fav @shehnaazgill. Happy Diwali.”Shehnaaz rose to fame with her stint in Bigg Boss 13, where her bond with late Sidharth Shukla was loved by the viewers. In 2017, she made her debut in the Punjabi film industry with Sat Shri Akaal England and later starred in Kala Shah Kala, Daaka and Honsla Rakh alongside Diljit Dosanjh and Sonam Bajwa. This year, Shehnaaz made her Bollywood debut with Salman Khan starrer Kisi Ka Bhai Kisi Ki Jaan. She is currently awaiting the release of Thank You For Coming, which also stars Bhumi Pednekar, Kusha Kapila and Dolly Singh.She will also be seen in a film by Sajid Khan. John Abraham, Riteish Deshmukh and Nora Fatehi are also a part of the family entertainer.</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/movies/shehnaaz-gill-guru-randhawa-spark-dating-rumours-pose-together-on-red-carpet-see-pics-video-8602231.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Virat Kohli Flies to Mumbai for Personal Reason, Will Rejoin India Squad on Monday: Report </t>
+  </si>
+  <si>
+    <t>The Indian cricket team reportedly arrived in Thiruvananthapuram for their second and final warm-up fixture of the ICC Cricket World Cup 2023 on Sunday but without their star batter Virat Kohli who will join a day later.While the India players flew from Guwahati to Thiruvananthapuram, Kohli took a flight to Mumbai due to personal reasons.According to Cricbuzz, Kohli will link up with the squad on Monday when they have an optional training session.“Team India will have an optional training session from 2 PM onwards at the KCA – St Xavier’s College Cricket Ground, Thiruvananthapuram, weather permitting,” the website quoted a team spokesperson as saying.Kohli is gearing up for what will be the fourth ODI world cup of his storied international career. He won the title with the Indian team in 2011 and then went on to captain them last time around in England when they made a semifinal exit.Ahead of the tournament, Kohli admitted that the past two-and-a-half years of his career have taught him a lot that includes a phase when he went without scoring a century in any form of cricket for nearly two years.“The last two and a half years have taught me a lot. Those angry celebrations are a thing of the past. I have had many suggestions, lots of advice has come my way; people were telling me I was doing this wrong, that wrong,” Kohli told ICC.“I picked out all the videos from the best time I had, same initial movement, same approach towards the ball and it was just what was happening inside my head, I wasn’t able to explain it to anyone,” he added.The Indian team is scheduled to take on the Netherlands in a practice match on Tuesday but the weather forecast is not promising. As per reports, rain is expected to impact the fixture with fears of another washout.India were scheduled to face England in Guwahati in their first warm-up match on Saturday but the contest was abandoned without a ball bowled due to rain.The Indian team will take on Australia in their world cup opener in Chennai on October 8.</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/cricketnext/virat-kohli-mumbai-personal-reason-icc-world-cup-india-squad-warm-up-match-netherlands-8599933.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dunki Plot Revealed; SRK And Rajkumar Hirani's Film Is Based On THIS India-Canada Issue? </t>
+  </si>
+  <si>
+    <t>After the massive success of Pathaan and Jawan, Shah Rukh Khan’s fans are eagerly waiting for his third release of the year – Dunki. For quite some time now, it has been said that Dunki will revolve around ‘donkey flight’ – a route used by illegal migrants to move to other countries, especially the US and Canada. However, if a recent report is to be believed, even though Dunki revolves around ‘issues of immigration’, it has nothing to do with Indians immigrating to Canada. Rather, it talks about a man who is working very hard to get a better life.“While the film does deal with the issue of immigration, it isn’t based in Canada or has anything to do with Indians based in Canada. It is a very sensitively made film that deals with a man’s journey of trying to find a better way of life and the various emotions he goes through while doing so,” a source cited by India Today claims. However, News18 Showsha cannot vouch for the authenticity of the report.Dunki is directed by Rajkumar Hirani and also stars Taapsee Pannu in the lead besides Shah Rukh Khan. Recently, SRK confirmed that Dunki is not getting pushed to next year and clarified that it is on track to release on Christmas.“I think, Mashallah, God’s been very kind. We had Pathaan. God’s been even kinder with Jawan. I always tell we started with Republic Day (January 26). It’s an auspicious day. On Janmashtami, we released Jawan. On Christmas, we will bring Dunki for you. I prioritize national integration. And whenever my film releases, it has to be Eid. I’m working hard. I’m working harder than what I worked in last 29 years. And Inshallah, I will work hard. I get happy now when people watch movies and they derive happiness out of them,” he said during the success meet of Jawan.This also means that Dunki will clash at the box office with Prabhas’ much-awaited movie, Salaar.</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/movies/dunki-plot-revealed-shah-rukh-khan-rajkumar-hirani-film-is-based-on-this-india-canada-issue-8600787.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anushka Sharma Refuses to Pose For Cameras in New Video Amid Pregnancy Rumours; Watch </t>
+  </si>
+  <si>
+    <t>Anushka Sharma is rumoured to be pregnant again. It is reported that Anushka is preparing to welcome her second baby with Virat Kohli. The actress is yet to react to the reports. Amid the rumours, a video of one of her recent spottings has surfaced online in which Anushka was seen wearing loose clothes and seated in the passenger seat of her car. However, she wasn’t in the favour of being clicked. In a video shared by Instant Bollywood, Anushka was seen wearing a white shirt and a pair of pants. Anushka noticed the cameras clicking her and was seen signalling them not to photograph her. She also told the paparazzi a quick goodbye and left the spot. It seems like the video was shot before the claims of her pregnancy were made. Watch the video below: A post shared by Instant Bollywood (@instantbollywood)Over the weekend, a source told Hindustan Times that Anushka is expecting her second baby with Virat. “Anushka is expecting her second baby. Like the last time, they will formally share the news with the world at a later stage.”Addressing the actress’ lack of public appearances, the source claimed, “This isn’t a coincidence. She is staying away from the public eye to avoid speculation.” While the rumours had been sparked earlier, they gained momentum after Anushka’s Ganesh Chaturthi post.Another source told the publication that Anushka and Virat were recently spotted by the paparazzi outside a maternity clinic in Mumbai but requested that their photographs not be taken. “They requested the paparazzi to not publish their pictures, with a promise to make an announcement soon,” the source was quoted as saying.Anushka Sharma and Virat Kohli got married in 2017 and welcomed their daughter Vamika in January 2021. Meanwhile, on the work front, Anushka will soon be seen in Chakda’Xpress, the biography of former Indian cricketer Jhulan Goswami.</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/movies/anushka-sharma-signals-paparazzi-not-to-take-photos-amid-pregnancy-rumours-video-goes-viral-8599951.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Animal Star Ranbir Kapoor Answers Why He Never Hired A Publicist: 'PR Is the Death of...' </t>
+  </si>
+  <si>
+    <t>Ranbir Kapoor, who is celebrating his 41st birthday today, often comes under scrutiny for his controversial statements. However, the Animal star has remained unfazed by all the hullabaloo over the years, and never hired any publicist for any kind of damage control, which is a rarity for a Bollywood movie star of his stature.In an interview with Times Now in 2012, Ranbir had explained why he would not hire a PR team and how it could impact the career of an actor. “PR is the death of an actor,” he had said. “What happens is when you use PR the wrong way, you start believing it. People who plant articles about themselves or about other people, it becomes a very addictive game. And you start believing that my stardom is dependent only on how many times my face is featured on the cover of a magazine.” Ranbir continued, “I think PR is something you have to use intelligently, where your skills are concerned. You use PR intelligently when you’re really doing something. And if you don’t believe in something… if I’m going to a charity event for a PR thing, the audience sees through it. If you don’t believe in something, they’ll always see through you.”On the work front, Ranbir Kapoor is gearing up for the release of Sandeep Reddy Vanga’s Animal. Animal teaser will be unveiled today, coinciding with the actor’s birthday. It will be over two minutes long and reportedly give an insight into Ranbir’s intense character. Animal is scheduled for release on December 1 and will clash with Sam Bahadur.Rashmika Mandanna has been cast as the female lead for Animal. She will be sharing screen space with Ranbir for the first time. Anil Kapoor has also been roped in for a crucial role in the Sandeep Reddy Vanga directorial. Bobby Deol is reportedly playing the antagonist in the film.</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/movies/ranbir-kapoor-answers-why-he-doesnt-hire-publicist-says-pr-is-the-death-of-an-actor-8594890.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Priyanka Chopra Expresses Joy As Writers' Strike Comes To An End </t>
+  </si>
+  <si>
+    <t>After a series of tiring negotiations and meetings spanning numerous consecutive days, the Writers Guild of America (WGA) and the labour group representing studios and streamers have finally struck a tentative deal on a new contract. This significant breakthrough has the power to bring an end to a historic 146-day writers’ strike, providing relief to the entertainment industry. Movies and TV Shows that were stalled or delayed due to the SAG AFTRA strike will now be able to resume their production schedules. As news of the agreement broke, Hollywood celebrities, including Priyanka Chopra joined in the celebrations, applauding the efforts of those who played a crucial role in making this agreement possible and marking the beginning of a new chapter in Hollywood.The Citadel actress couldn’t hide her joy and took to Instagram to express her excitement, she wrote, “Bravo. This is the result of a committed, unified stance. Hope that this positive momentum can drive closure on the SAG AFRA discussions too. After several long consecutive days of negotiations, the WGA and the AMPTP have reached a tentative deal on a new contract in a major development that could precipitate the end of a historic, 146 day.” A post shared by Priyanka (@priyankachopra)As per Hollywood Reporter, the Writers Guild of America shared the news to strike captains via email on Sunday night, followed by an announcement to all its members. The message read, “We have reached a tentative agreement on a new 2023 MBA, which is to say an agreement in principle on all deal points, subject to drafting final contract language.” Meanwhile, the Alliance of Motion Picture and Television Producers (AMPTP) also confirmed the historic agreement in a joint statement with the WGA.The parties have decided to lock in a three-year agreement, but it will require further approval by the WGA members to become official. While the exact details of the deal, which impacts approximately 11,500 WGA members, are currently undisclosed, they are expected to be revealed in the coming days as the union aims to garner support from its members for the agreement.These negotiations took place over five consecutive days during the weekend, preventing them from becoming the longest in the union’s history. The previous record was established in 1988 when the WGA went on strike against Hollywood companies for a total of 154 days.The production of Priyanka Chopra’s project Heads Of State, which was previously halted due to the strike, is now set to resume. This Prime Video film also stars Idris Elba and John Cena, with Ilya Naishuller directing the project. Additionally, the actress is set to share the screen with Guardians of The Galaxy star Chris Pratt in a film titled Cowboy Ninja Viking.</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/movies/priyanka-chopra-expresses-joy-as-writers-strike-comes-to-an-end-8592101.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tamannaah Bhatia Sizzles In Black, Gives Tight Hug To Rajinikanth At Jailer Party, Video Goes Viral </t>
+  </si>
+  <si>
+    <t>Rajinikanth starrer Jailer was loved by fans. The film received a lot of love from the audience and critics. Well, the song Kaavaalaa was also equally hit among the masses. On Sunday night, the cast and crew celebrated the success of the film and were seen coming together. Tamannaah Bhatia took to her social handle and shared a video showing glimpse of the party night. She was looking hot in black colour gown.In the video, Tamannah was seen wearing a classic black colour body hugging gown. She completed the look with a bun and kept her makeup to minimalistic. Her look was perfect for any night event. She even writes a long note thanking everyone for showering so much love on the film. “Last night we celebrated! A culmination of vision, passion and teamwork! Team Jailer… it has been an absolute honor and pleasure to be a part of this film. Congratulations to the entire cast &amp; crew. A special shout out to the man himself @rajinikanth sir… working with you has been truly memorable. @nelsondilipkumar sir… Thank you for everything! Let’s keep creating great stories together! everyone at @sunpictures, looking forward to many more collaborations together. And finally… thank you to the audience for giving this film and ‘Kaavaalaa’ so much love!,” it read.Watch the video here: A post shared by Tamannaah Bhatia (@tamannaahspeaks)As soon as she shared the video, fans started dropping comment. One of the fans wrote, “I have barely seen an actor who has the guts to make public appearance exactly the way he is. No wig no hair dyes no fashionable cloth no attitude.” Another wrote, “Congrats #jailer team.”Recently, director Nelson Dilipkumar also took to his Instagram handle to share a heartfelt gratitude note that he had penned for the Rajinikanth and the film’s entire cast and crew. Jailer has earned more than Rs. 340 crore all India nett. It surpassed the earnings of Mani Ratnam’s Ponniyin Selvan: I and is currently the second-highest-grossing Tamil movie.</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/movies/tamannaah-bhatia-sizzles-in-black-gives-tight-hug-to-rajinikanth-at-jailer-party-video-goes-viral-8581609.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alia Bhatt Looks Hot In Blue Dress, Joins BFF Akansha Kapoor’s Birthday Bash With Shaheen; See Pics </t>
+  </si>
+  <si>
+    <t>Alia Bhatt has just returned from her New York vacation with Ranbir Kapoor. The couple were spotted at the airport. Well, there is no doubt she is one of the most famous celebrities. She enjoys a huge fan following. Alia is always followed for her impeccable fashion sense. Well, keeping up with the trend she was seen joining BFF Akansha Ranjan Kapoor’s birthday party with sister Shaheen. The pictures have gone viral on social media.For the party, Alia was seen wearing an electric blue fringe-detailed mini-dress with a plunging neckline. She completed her look with dewy makeup, a couple of rings, and transparent heels. Needless to say Alia was rocking the attire and was looking hot. Her sister Shaheen on the other hand looked elegant in a red full-length dress. Both sisters posed for the camera before heading for the party. Many other celebrities including Malaika Arora, and Athiya Shetty were also seen joining the bash.Take a look at the photos here:On Sunday, a video surfaced in which Alia Bhatt’s car was mobbed by a group of women. Sharing the viral clip on their feed, popular paparazzo handle Viral Bhayani captured a group of women curiously peeking through the black tinted window of an SUV, which allegedly belongs to Alia Bhatt. The video caught these women smooshing their faces against the car before the car started moving. However, News18.com cannot confirm or deny whether it was actually Alia Bhatt’s car.Talking about Alia, the actress has received a national award this year for her stellar performance in Gangubai Kathiawadi. She was last seen in Rocky Aur Rani Kii Prem Kahaani. The romantic drama was loved by fans and it emerged as a hit at the box office. Dharmendra, Shabana Azmi, Jaya Bachchan, and others were also seen in the family. The film is now available on OTT. The OTT version of the film also features an extra 10 minutes which were cut from the theatrical version due to time constraints. Apart from this, the actress was also seen in the Hollywood film Heart Of Stone. Well, Alia has not announced her next project till now.</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/movies/alia-bhatt-looks-hot-in-blue-dress-joins-bff-akansha-kapoors-birthday-bash-with-shaheen-see-pics-8581574.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shraddha Kapoor IGNORES Rashmika Mandanna? Viral Video Has Fans Thinking If There's Bad Blood; Watch </t>
+  </si>
+  <si>
+    <t>Shraddha Kapoor appeared to have ignored Rashmika Mandanna at the Ambani Ganpati Puja that took place on Tuesday night. Shraddha and Rashmika were among the many stars who were invited to the grand Ganpati puja. For the starry night, Shraddha stepped out wearing a pearl white outfit. She opted for a traditional churidaar and tied her hair up into a neat bun. She completed her hairdo with jasmine flowers. On the other hand, Rashmika was seen wearing a saree for the night. In a video shared by Filmygyan on Instagram, Shraddha and Rashmika’s paths crossed outside the puja venue. However, fans noticed that Shraddha did not greet Rashmika and accused her of ignoring her. Fans took to the comments section and shared their thoughts. “Has Shraddha Kapoor intentionally ignored Rashmika Mandanna?” asked a social media user on X (previously Twitter). “So Shradha and Rashmika don’t even wave hi or even smile to eachother???” asked another. However, a few fans also defended them, suggesting that they might have not known each other. “She might have not recognized her,” a fan said. “She might not kno who Rashmika Mandana is,” added another. “Shraddha was leaving and she was looking outside and paps were busy taking Rashmika pictures …Shraddha didn’t had any eye contact as she was leaving …it’s accidental..pls stop this,” added another. Watch the video below: A post shared by F I L M Y G Y A N (@filmygyan)The Ganesh Chaturthi puja hosted by the Ambani family took place at their home, Antilia, in Mumbai. The puja was attended by several stars. These included Salman Khan, Shah Rukh Khan along with his wife Gauri Khan and daughter Suhana Khan, Deepika Padukone, Ranveer Singh, Alia Bhatt, and Ayan Mukerji among others. A video revealed that Rashmika met with Deepika Padukone and Ranveer Singh. On the work front, Shraddha will be seen in a few projects. She is reportedly a part of Chandu Champion, headlined by Kartik Aaryan. She is also set to return for Stree 2. On the other hand, Rashmika’s next Bollywood film is Ranbir Kapoor’s Animal.</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/movies/shraddha-kapoor-ignores-rashmika-mandanna-viral-video-has-fans-believing-theres-bad-blood-watch-8584285.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Malaika Arora Shares Cryptic Post Amid Breakup Rumours, 'If You Don't Like How She Is Acting...' </t>
+  </si>
+  <si>
+    <t>Amid the break up rumours of Malaika Arora and Arjun Kapoor, the former recently took to her Instagram handle to share a cryptic post addressing about the rough patch in their relationship. The note talked about treating women right. The post read, ” A woman becomes a reflection of how you treat her. If you don’t like how she’s acting, look at how you are treating her.”She also shared a Good Morning note which read, “The best way to take care of the future is to take care of the present moment.”Malaika Arora and Arjun Kapoor’s breakup rumours made headlines after netizens noticed that the Bollywood diva neither commented nor liked Arjun’s latest social media pictures. While the two have not issued any official statement regarding their alleged breakup as of now, it was recently claimed that Arjun is now dating Kusha Kapila. The two recently attended a party at Karan Johar’s residence when their group pictures also went viral on social media. More fuel was added to this speculated fire after Malaika unfollowed Arjun’s family members on Instagram. This included his father Boney Kapoor, uncle Anil Kapoor and sisters Anshula Kapoor, Janhvi Kapoor and Khushi Kapoor. Amid all these, Malaika and Arjun were spotted a couple of times stepping out for lunch and dinner dates rubbishing these rumours. However  fans again grew curious after Arjun was missing from Malaika’s Onam celebrations this year. Malaika had hosted a Sadhya lunch for her close friends at her mother’s Joyce’s house. Neither Arjun nor Malaika has given any statements about these rumours.</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/movies/malaika-arora-shares-cryptic-post-amid-breakup-rumours-with-arjun-kapoor-8564271.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Petrol, Diesel Fresh Prices Announced For September 27: Check Fuel Rates In Your City </t>
+  </si>
+  <si>
+    <t>Petrol, and Diesel Prices on September 27: Indian oil companies have kept the petrol and diesel prices on Wednesday, September 27, in all major cities almost at the same level with minor tweaks. These, however, vary from state to state due to value-added tax (VAT), freight charges, local taxes, etc.In West Bengal, petrol has become costlier by 42 paise and diesel by 39 paise. There is an increase of 25 paise in the price of petrol and diesel in Uttar Pradesh. Petrol has become costlier by 32 and 30 paise in Maharashtra. Apart from this, prices of petrol and diesel have increased in many other states/union territories including Kerala, Jammu and Kashmir, Tamil Nadu and Telangana. In Rajasthan, petrol has become cheaper by 19 paise and diesel by 17 paise. The prices of petrol and diesel have also been reduced in Haryana.At present, petrol in Delhi is being sold at Rs 96.72 a litre while diesel is being sold at Rs 89.62 a litre. Whereas in Mumbai, petrol is available at Rs 106.31 and diesel at Rs 94.27 per litre. While petrol in Kolkata is Rs 106.03 and diesel is Rs 92.76 per litre. On the other hand, petrol is being sold at Rs 102.63 and diesel at Rs 94.24 per litre in Chennai.In India, oil marketing companies (OMCs) such as Indian Oil, Bharat Petroleum and Hindustan Petroleum determine petrol and diesel prices. This is done on a daily basis, and rates are determined in accordance with the price of crude oil throughout the world.Why do fuel prices vary across states?How to Check Petrol, and Diesel Prices City-Wise?You can also know the daily rate of petrol and diesel through SMS. Indian Oil customers can get information by sending RSP and their city code to 9224992249 and BPCL customers can get information by sending an SMS to 9223112222 by typing RSP and their city code. Whereas, HPCL consumers can know the price by sending HPPrice and their city code to 9222201122.</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/business/petrol-diesel-fresh-prices-announced-for-september-27-check-fuel-rates-in-your-city-8593484.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kushi: Samantha Ruth Prabhu and Vijay Deverakonda's Emotional Climax Leaked? Here's What We Know </t>
+  </si>
+  <si>
+    <t>Samantha Ruth Prabhu will be romancing Vijay Deverakonda in her upcoming movie Kushi. The trailer has already generated curiosity among fans and the songs are being loved by all.Even as the promotions are on, speculations are rife about its climax. Sources reveal that the movie will end on an emotional note, as the main characters navigate health and personal challenges, touching upon the complexities of relationships. While director Shiva Nirvana initially hinted at a light story, new reports indicate that the film will also touch on sensitive topics like miscarriage, handled with care. The emotional journey blends action and comedy for a well-rounded movie experience. The standout moments are expected to be the performances of Vijay and Samantha in the final scenes.With the film’s release date approaching, advance bookings have already kicked off on a global scale. However, the opening of advance sales in India is still pending. The most recent report suggests that the early bookings within the country will begin on Wednesday. Kushi, a pan-Indian romantic drama directed by Shiva Nirvana, features Vijay Deverakonda and Samantha Ruth Prabhu in the lead roles. The film also stars Jayaram, Sachin Khedekar, Murali Sharma, Lakshmi, Ali, Rohini, Vennela Kishore, Rahul Ramakrishna, Srikanth Iyengar and Saranya Pradeep. Hesham Abdul Wahab is the composer of the film’s music, and it is produced by Mythri Movie Makers. The film recently received a U/A certificate from the censor board and is slated for release on September 1.Meanwhile, Samantha is an acting break in New York, seeking treatment for myositis. The actress has been routinely sharing photos and videos from her break, with her fans. Samantha will be also seen in the Indian leg of the Russo Brothers’ web series Citadel with Varun Dhawan. The show is directed by filmmaker duo Raj and DK.</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/movies/kushi-samantha-ruth-prabhu-and-vijay-deverakondas-emotional-climax-leaked-heres-what-we-know-8554907.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ranveer Singh, Deepika Padukone Cannot Stop Looking At Each Other, Wish Fans Happy Ganesh Chaturthi; Photos </t>
+  </si>
+  <si>
+    <t>Bollywood’s power couple, Ranveer Singh and Deepika Padukone on Tuesday shared heartwarming and adorable photos from Ganesh Chaturthi celebrations. The couple, known for their sizzling chemistry, melted hearts with their loving gazes and warm wishes for the auspicious occasion. In no time the pictures went viral on social media. Many other celebrities also wished fans happy Ganesh Chaturthi earlier.In a series of photos, shared on social media, Ranveer Singh and Deepika Padukone were seen looking at each other and smiling. Deepika is wearing red colour ethnic wear with smokey eye makeup. She opted for red-toned stud earrings. While Ranveer is wearing a green colour kurta with red colour dupatta. Their radiant smiles for each other is looking very cute. “Wishing you &amp; your loved ones a very Happy Ganesh Chaturthi!” read the caption.Take a look here: A post shared by दीपिका पादुकोण (@deepikapadukone)Anushka Sharma also wished fans. Anushka is wearing a golden and red colour combination saree with her hair tied in a bun. She has opted for subtle makeup. Virat opted for white colour ethnic wear. Earlier in the day, Ajay Devgn also shared a video on his Instagram handle where he is seeking blessings from Lord Ganesh.  The caption read, “Dukh Harta, Sukh Karta, Buddhi Vidhata. Not only this day, may every day begins with Bappa’s blessings. Happy Ganesh Chaturthi to all (folded hand emoji). Ganpati Bappa Moreya!!”Akshay Kumar took to Twitter and wrote, “As we welcome Lord Ganesha in our homes and hearts today, may He remove all obstacles and fill our lives with joy and prosperity. Ganpati Bappa Morya! Wish you all a very Happy Ganesh Chaturthi (folded hand emoji)”.On the work front, Deepika recently had an extended cameo in Shah Rukh Khan’s Jawan. The actress will soon be seen in Fighter with Hrithik Roshan and Anil Kapoor. She also has Kalki 2898-AD with Amitabh Bachchan and Prabhas. Ranveer Singh will be seen in Don 3.</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/movies/ranveer-singh-deepika-padukone-cannot-stop-looking-at-each-other-wish-fans-happy-ganesh-chaturthi-photos-8584060.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Can Rahul's OBC Push Pull Votes for Congress, as It Hunts for Winnable Candidates in Poll-bound States? </t>
+  </si>
+  <si>
+    <t>Rahul Gandhi’s OBC fixation has now put the Congress in a spot, especially in poll-bound states. While his push for a nationwide caste census means the party would need to walk the talk and ensure it gives the most election tickets to candidates from the Other Backward Class (OBC) and other disadvantaged groups, it also has raised a question– would they be winnable?There is no denying that it’s “do or die” for the Congress in these state polls as it feels a win here could raise its chips in 2024. But history has shown that the Congress’s experiments with caste politics have not always met with success.In the previous Telangana polls, the party gave tickets to the Reddy community and OBCs, but both failed to make the cut. The state has a nearly 50% OBC population and the last time the Congress gave tickets to 24 candidates from the community for the assembly polls. But now the Telangana OBC political affairs unit in a meeting with the top Congress leadership has conveyed that the party must practice what it preaches.“If Rahul Gandhiji is talking about OBC reservation then he should give tickets to at least 50% of them. But the worry is that can they win? Where will the Congress get those winnable candidates from?” said a party insider.Ponnam Prabhakar, an OBC leader and working president of the Telangana Pradesh Congress Committee, told News18, “Things are changing and we think this time the Congress must increase the number of tickets being given to OBCs. Rahulji has given support to the OBCs.”However, sources say not many leaders are in agreement. While Abhishek Singhvi has been openly sceptical of this OBC push, though he had to retract a comment on the issue, in private, many like the Reddy community and upper caste leaders in the Congress are worried. They have pointed out that the BJP has done well among the OBCs and to completely turn that around just ahead of the 2024 Lok Sabha elections may not be easy.In Madhya Pradesh, the OBCs have the potential to impact the upcoming assembly polls. They constitute about 48% of the electorate in the state and the BJP has a head start with this critical vote bank. The community is unlikely to forget that in the previous polls, the Congress had given just 2% of tickets to the OBCs. As the BJP decided to woo the tribal votes, the OBCs in the state began to feel restive over the assurance of a 27% quota in government jobs from the party. The fact that the Congress has now walked into this debate with a promise has the BJP restless.More than half of Rajasthan’s population is OBC. While chief minister Ashok Gehlot belongs to the Mali community, it has little sway in the state. Jats, who come under the OBC umbrella, are an influential group here. And they have been voting for the BJP. Gehlot has been making several efforts to reach out to the Jats and many poll tickets have been promised to them this time. But the Jats never vote en bloc, so it has raised questions on whether it would help the Congress to give this Jat-OBC push in ticket distribution.Gehlot appointed a Jat, Govind Singh Dotasra, as the state Congress chief, and the BJP then made Satish Poonia the head of its local unit to counter this. In the previous polls, the Congress had given about 10% of tickets to OBC candidates. This time, Rahul Gandhi’s wish is to hike the number. But it is an election, where the Congress is not confident and is unwilling to take any risks. But will Rahul Gandhi listen?</t>
+  </si>
+  <si>
+    <t>politics</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/politics/can-rahuls-obc-push-pull-votes-for-congress-as-it-hunts-for-winnable-candidates-in-poll-bound-states-8606078.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Canada Moves Diplomats from India to Singapore, Malaysia; New Delhi Mulls More Action: Sources to News18 </t>
+  </si>
+  <si>
+    <t>Canada is moving its diplomats posted in India to Singapore and Malaysia ahead of India’s October 10 deadline, according to reports. Sources say the Canadian side tried to negotiate with India but was unsuccessful.After Justin Trudeau alleged the involvement of Indian agencies in the murder of Sikh separatist Hardeep Singh Nijjar in Canada, New Delhi asked Ottawa to pull out 41 of its diplomats to bring parity in numbers. CNN-News18 reported this earlier.According to government sources, India now wants Canada to recall more than two dozen diplomats from its mission in New Delhi.A final decision is yet to be taken, they said, but the matter has been in discussions for almost two weeks.New Delhi sees this as a downgrading of diplomatic relationships. And after the cancellation of visas, India sees no requirement for a high-strength presence of Canadian diplomats, said sources.</t>
   </si>
   <si>
     <t>india</t>
   </si>
   <si>
-    <t>https://www.news18.com/india/nipah-virus-news-top-points-kerala-shut-time-restricted-rajasthan-karnataka-8578254.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jawan Box Office Day 8: Shah Rukh Khan Starrer Stays Strong, Inches Close To Rs 400 Crore Mark </t>
-  </si>
-  <si>
-    <t>Even eight days after its release, Shah Rukh Khan starrer Jawan has refused to slow down at the box office. The film continues to earn in double digits and is now inching close to Rs 400 crore mark. As reported by the industry tracker Sacnilk, early estimates suggest that Jawan earned Rs 19.50 crore on Thursday, September 14. With this, the film’s total collection stands at Rs 388.72 crore. This also means that the Atlee directoral may cross the Rs 400 crore mark on Friday, September 15. Released on September 7, Jawan is getting immense love from the audience. Written and directed by Atlee, besides Shah Rukh Khan, the film alos stars Nayanthara, Ridhi Dogra and Vijay Sethupathi in key roles. Deepika Padukone also plays an extended cameo in the movie. Jawan has broken several box office records ever since its release. It has become the best-ever Hindi opener at global box office and in the domestic market too. The film also holds the record of highest single-day earner of all time. It also became the first Hindi movie to enter Rs 200 crore club in just three days.Several celebrities including Anupam Kher, Akshay Kumar, Allu Arjun, SS Rajamouli, Kiara Advani, Sidharth Malhotra and Ameesha Patel among others have given a shoutout to Shah Rukh Khan for the success of his movie. On Thursday, Karan Johar also penned down a long note for his ‘bhai’ SRK and praised him for the blockbuster Jawan has become. Recently, Shah Rukh Khan also took to the microblogging site X, formerly known as Twitter and thanked fans for showering immense love on his film. “Thank you for all the love and appreciation for #Jawan!! Stay safe and happy… Please keep sending in the pics and videos of all of you enjoying at the movies…. And I will be back soon to see all of them! Until then… Party with Jawan in the theatres!! Lots of love and gratitude!” SRK wrote.</t>
-  </si>
-  <si>
-    <t>movies</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/movies/jawan-box-office-day-8-shah-rukh-khan-starrer-stays-strong-inches-close-to-rs-400-crore-mark-8578126.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jawan Actress Priyamani Says Director Atlee 'Cheated' Her; Check How </t>
-  </si>
-  <si>
-    <t>If there is one movie every cinephile is gushing about nowadays, it is the Shah Rukh Khan starrer Jawan. The Atlee-directed film has been setting the box office on fire since its release. Jawan set a new record in the Hindi film industry by crossing the Rs 300 crore mark in the fastest time, a record previously held by another Shah Rukh Khan starrer Pathaan. One of the distinguishing facts about Jawan is that every cast member is receiving praise for their portrayal of their characters and it is not just the King Khan walking away with the thunder. One of them is South actress Priyamani who has appeared in films of all the South Indian languages. Priyamani played Lakshmi, a trusted member of Shah Rukh Khan’s deadly girl squad in Jawan and nailed the role with absolute perfection. Priyamani, does, however, have a grudge against director Atlee. Her grudge stems from a viral rumour that most of the country was subjected to in the weeks leading up to Jawan’s release.Prior to the release, it had widely been reported that Tamil star Thalapthy Vijay, who is a frequent collaborator of Atlee, would have a cameo in Jawan as well. It, however, turned out to be false after the film was released. Priyamani said in a recent interview that Atlee had actually told her that Vijay was on board the film along with Shah Rukh. An excited Priyamani had even requested a few scenes with Vijay, to which Atlee had agreed.Priyamani expressed her disappointment when, during the shoot, Vijay was not a part of Jawan. She joked that Atlee had cheated her in this fashion. The actress made this complaint in all good faith though.Priyamani had previously also opened up about how Shah Rukh Khan insisted on having her next to him in the dance sequence of the song Zinda Banda after choreographer Shobi Master placed her behind him. According to her, Shah Rukh had said that he had learnt dance from her during Chennai Express and thus wanted her beside himself, not behind.</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/movies/jawan-actress-priyamani-says-director-atlee-cheated-her-check-how-8577248.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mrunal Thakur Clocks 5 Years In Bollywood, Says 'Will Become Irrelevant If You Don't...' </t>
-  </si>
-  <si>
-    <t>Actress Mrunal Thakur, known for her remarkable journey from television to an impressive five-year stint in Bollywood films and now, one year since her impactful debut in the South Indian film industry, speaks candidly about her unwavering commitment to explore new horizons in the world of cinema. The actress completes her 5 years of in the film industry.Having begun her cinematic journey with the acclaimed film Love Sonia, Mrunal Thakur has consistently pushed the boundaries of her acting career. She believes that the art of acting is a continuous journey, and she’s enthusiastic about embracing new challenges and opportunities.“I have so much more to explore,” says Mrunal. “There are numerous languages of cinema to be a part of, and so many genres that excite me. I’m ready to experiment and immerse myself in the diversity that the world of films offers. As an actor if you don’t have the appetite to accept new challenges and find ways to reinvent the wheel, and be open to different kinds of work, you will become irrelevant too far, too soon. I have gone from doing television, to indie films, to commercial to south, have worked in 3 languages now and I have committed to myself to keep trying things that excite me. This is hunger is what has helped me to be where I’m today”. In recent times, Mrunal Thakur has been on a signing spree, collaborating with some of the most prominent names in both the Bollywood and Southern film industries. Her dedication to her craft and her ability to adapt to various roles have earned her opportunities to work alongside A-listers in the industry.One of her latest projects includes the Telugu film “Hi Nanna,” which has generated significant buzz among audiences. The trailer has garnered much attention, and fans are eagerly anticipating her performance in this venture.Currently, Mrunal Thakur is in the midst of filming for “VD13,” a highly anticipated project alongside Vijay Devakonda, further solidifying her presence in the South Indian film industry.</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/movies/mrunal-thakur-clocks-5-years-in-bollywood-says-will-become-irrelevant-if-you-dont-8577668.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sexy! Shehnaaz Gill Raises The Heat With Her Bold Moves In Racy Dress, Hot Video Goes Viral; Watch </t>
-  </si>
-  <si>
-    <t>Shehnaaz Gill has taken the internet by storm with her sexy video which is going viral on the internet. Shehnaaz on Tuesday attended an uber-cool party as a part of promotion for her upcoming movie ‘Thank You For Coming,’ along with her co-stars Bhumi Pednekar, Kusha Kapila, Dolly Singh and Shibani Bedi. Shehnaaz looked sensational as she arrived in a very hot outfit.The former Bigg Boss contestant opted for a racy black dress which featured a plunging neckline. She styled her hair in loose beachy waves and completed her look with a pair of high heels. A post shared by Viral Bhayani (@viralbhayani)Rhea Kapoor’s husband, Karan Boolani, is set to direct his first film, Thank You For Coming, with Bhumi, Shehnaaz and Anil Kapoor in leading roles. The trailer of the film was released recently. The film also features Pradhuman Singh Mall, Natasha Rastogi, Gautmik, Sushant Divgikar, Saloni Daini, Dolly Ahluwalia and Karan Kundrra in key roles. Produced by Rhea Kapoor, Ektaa Kapoor and Shobha Kapoor under the Balaji Motion Pictures banner, the film is set to have its world premiere at the Toronto International Film Festival 2023 on September 15. The film deals with a taboo subject of women’s orgasm. Bhumi’s character in the film comes across as a single woman who struggles to climax. The cast of the film has been posting thought-provoking insights on social media, talking about how women experience a 30-60 percent orgasm rate during sexual encounters, while men typically fall within the 70-100 percent range.</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/movies/shehnaaz-gill-raises-the-heat-with-her-bold-dance-moves-in-hot-dress-sexy-video-goes-viral-watch-8575302.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Priyanka Chopra Joins Daughter Malti Marie Jonas's Playdate With Preity Zinta's Kids; See Photos </t>
-  </si>
-  <si>
-    <t>Priyanka Chopra is a global star. Not only does she enjoy unparalleled stardom in India but in the USA as well. As such, the Desi girl is bound to make headlines whenever she shares something on her social media timeline or steps out of home. Maintaining that trajectory, Priyanka Chopra, who is a doting mother to Malti Marie Jonas, organised a playdate for her with her friends, since Nick has been busy with the Jonas brothers tour. The same was also attended by Preity Zinta’s kids Jai and Gia. On Thursday, Priyanka Chopra dropped a whole bunch of pictures in her Instagram Stories, indicating that Malti had an eventful day. In the first picture, we can see PeeCee holding Malti by her waist, as she played with her toys. The following slides showed Malti and her friends having an amazing playdate. Priyanka Chopra even captioned the first slide ‘Play Date with friends(with heart eyes emojis)”. Take a look:Meanwhile, Preity Zinta shared a picture of three cookies with the names ‘Malti’, ‘Jai’ and ‘Gia’ plastered on them with choclate frosting. She wrote, “Generation next(with three heart emojis). #playdate #Ting #cuties!”Recently, Priyanka Chopra made headlines for her hot appearance at New York Fashion Week to celebrate the “Victoria’s Secret World Tour” event. For the special night, Priyanka was seen wearing a sheer dress that displayed her black lingerie. The actress left her hair open for the night and sported minimal make-up, allowing her outfit grab all the attention.The event was also attended by Doja Cat, Naomi Campbell, Adriana Lima, Candice Swanepoel, Gigi Hadid and Lily Aldridge. Speaking with the press at the event, Priyanka showed Nick her love and support. Priyanka, who has been attending Jonas Brothers concerts lately, was asked to describe her perfect outfit. “Well it’s different if I am going to someone else’s concert and if I am going to my husband’s concert. Because when I go to my husbands concert, I am really proud and I am excited seeing him up there and I am his number one fan, a lot of people would debate me on that and I agree,” she said.Priyanka was last seen opposite Richard Madden in Prime Video’s spy-thriller series Citadel. The series was created by Josh Appelbaum, Bryan Oh and David Weil. It also featured Stanley Tucci, Lesley Manville and Ashleigh Cummings in pivotal roles. The actor will soon begin shooting for Farhan Akhtar’s Jee Le Zara with Katrina Kaif and Alia Bhatt. She was also filming for Heads of State.</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/movies/priyanka-chopra-joins-daughter-malti-marie-jonass-playdate-with-preity-zintas-kids-see-photos-8577424.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tamannaah Bhatia Is 'Girlfriend Goals' As She Turns Pap For Vijay Varma, Couple Leaves Holding Hands </t>
-  </si>
-  <si>
-    <t>Tamannaah Bhatia and Vijay Varma have been ruling hearts and headlines ever since the two announced their relationship. They never shy away from expressing love for one another and are often seen making public appearances together. On Friday night too, the two actors made a stylish appearance as they attended an event in Mumbai. However, a video of Tamanaah and Vijay has now surfaced on social media which has left everyone in complete awe.In the viral video, Vijay Varma can be seen posing for the paparazzi. He sported a black and silver suit and looked stunning as always. However, it wasn’t just the paparazzi who clicked his pictures but Tamannaah too. In the clip, the Babli Bouncer actress can be seen taking her boyfriend’s pictures as he posed for the shutterbugs. A post shared by Instant Bollywood (@instantbollywood)The video has left fans completely impressed who are now declaring Tamannaah Bhatia and Vijay Varma the ‘cutest’ couple of the tinsel town. Reacting to the viral clip, one of the fans wrote, “Bhabhi photo click kar rhi hai”. Another social media user commented, “This is so cute yrr”. A third user called them “couple goals”.Meanwhile, Tamannaah Bhatia and Vijay Varma were also seen holding hands as they left the venue after the event ended. Watch it here: A post shared by Viral Bhayani (@viralbhayani)For the unversed, Tamannaah Bhatia announced her romantic relationship with Vijay Varma in an interview with Film Companion earlier this year, when she said, “I don’t think you can get attracted to someone just because they are your co-star. I have had so many co-stars. I think if one has to fall for someone, feel something for someone it’s definitely more personal, it’s nothing to do with what they do for a living, I mean that’s not the reason why this would happen.” The two then featured together in Lust Stories 2, for which Tamannaah even broke her no-kiss on-screen policy.</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/movies/tamannaah-bhatia-is-girlfriend-goals-as-she-turns-pap-for-vijay-varma-couple-leaves-holding-hands-8570056.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shah Rukh Khan Jumps Off An Edge, Performs Top-Notch Action In Unseen Video From Jawan Sets; Watch </t>
-  </si>
-  <si>
-    <t>Shah Rukh Khan’s Jawan has become of the biggest blockbusters ever. It’s top notch action sequences have left fans completely impressed. Now that the Atlee directorial is in theatres, a throwback video of King Khan from the sets has surfaced on social media in which he can be seen jumping off an edge. With all the cameras and stuntmen around, Shah Rukh Khan is seen performing an action scene in the video. The video was originally shared on the microblogging site X by the action-director Ferdi Fischer. “Throwback to that unforgettable day earlier this year on the set of #Jawan with the King of Bollywood, Shah Rukh Khan! 🎬 Big ups to Spiro and #RedChilliesEntertainment for this once-in-a-lifetime gig. Don’t miss this signature wrap-around shot of SRK, captured with our cutting-edge #WarpCam prototype!” he wrote. Watch it here:  Throwback to that unforgettable day earlier this year on the set of #Jawan with the King of Bollywood, Shah Rukh Khan! 🎬 Big ups to Spiro and #RedChilliesEntertainment for this once-in-a-lifetime gig. Don't miss this signature wrap-around shot of SRK, captured with our… pic.twitter.com/S5bWZnxiWk— Ferdi Fischer (@slamartist_com) September 8, 2023Several social media users reacted to the video and hailed Shah Rukh Khan for performing his stunts on his own. “SRK Sir the action hero. Being a biggest superstar still SRK Sir does his own stunts. It’s just amazing , lot’s of respect for him,” one of the fans wrote. Another user shared, “We loved your action direction in the movie.”Written and directed by Atlee, Jawan stars Shah Rukh Khan, Nayanthara, Ridhi Dogra and Vijay Sethupathi in key roles. Deepika Padukone also plays an extended cameo in the movie. Earlier today, Shah Rukh Khan took to the microblogging site X, formerly known as Twitter and thanked fans for showering immense love on his movie. “Thank you for all the love and appreciation for #Jawan!! Stay safe and happy… Please keep sending in the pics and videos of all of you enjoying at the movies…. And I will be back soon to see all of them! Until then… Party with Jawan in the theatres!! Lots of love and gratitude!” he wrote.Meanwhile, Jawan broke all records by earning over Rs 75 crore nett in India on day 1 for all languages. It then collected Rs 53 crore on day 2. This means that the film’s total collection stands close to Rs 128 crore as of now.</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/movies/shah-rukh-khan-jumps-off-an-edge-performs-top-notch-action-in-unseen-video-from-jawan-sets-watch-8570161.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alia Bhatt, Ranveer Singh's UNSEEN Steamy Scenes From Rocky Aur Rani Kii Prem Kahaani Go Viral </t>
-  </si>
-  <si>
-    <t>Karan Johar on Thursday dropped the full version of the Saregama Caravan Medley from his blockbuster film Rocky Aur Rani Kii Prem Kahaani. The medley featured two more songs that didn’t make it to the film, owing to its 2 hour 50 minute duration.While the Saregama Caravan Medley consisted of three songs in the film version, the full version released by Dharma Productions and Saregama Music on YouTube, features two more songs including ‘Hum Tum Ek Kamre Mein’ and ‘Aao Na, Gale Lagao Na’.In the unseen footage, while Dharmendra and Shabana Azmi are seen having breakfast at a 5-star hotel, Ranveer and Alia are busy making out in the room behind the elderly couple. Alia looks stunning in a yellow sari as she gets cosy with her co-star for the steamy bedroom sequence. In another scene, Ranveer and Alia are seen making out in the corridor and on the stairs of the hotel. They’re both twinning in black.The video went viral in no time, with netizens praising Alia and Ranveer for their on-screen chemistry. While referring to Alia and Ranveer’s Gully Boy characters, one user wrote, “Giving Safeena and Murad a run for their money.” Another one said, “Ranveer Alia were just eating each other up for breakfast lunch and dinner in this medley.”Ranveer Alia were just eating each other up for breakfast lunch and dinner in this medley 🌹🌹🌹 pic.twitter.com/8exqV2W0k1— ⓡⓞⓒⓚⓨ (@unapologeticRVS) September 6, 2023giving safeena murad a run for their money 😭😭🔥🔥 https://t.co/xPF7luXytX— ♚ (@historymakerjm) September 6, 2023A post shared by Karan Johar (@karanjohar)Despite competition from the Bollywood biggies like Gadar 2, OMG 2 and Dream Girl 2, Rocky Aur Rani Kii Prem Kahaani managed to earn Rs 340 crore worldwide within a month.After a hiatus of 7 years, Karan Johar returned to director’s chair with Rocky Aur Rani Kii Prem Kahaani. The film follows the love story of Rocky (played by Ranveer), a Punjabi boy, and Rani (played by Alia), an intellectual Bengali journalist. Despite their stark differences, they fall deeply in love and try to convince their families. The film also features Dharmendra, Shabana Azmi, Jaya Bachchan and Bengali actors Tota Roy Chowdhury and Churni Ganguly.</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/movies/alia-bhatt-ranveer-singhs-unseen-steamy-scenes-from-rocky-aur-rani-kii-prem-kahaani-go-viral-8568476.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kiara Advani, Sidharth Malhotra Watch SRK's Jawan On First Day, Video Goes Viral; Watch </t>
-  </si>
-  <si>
-    <t>Shah Rukh Khan starrer Jawan has received a positive response from the audience. Right from common people to celebrities, all were spotted at the theatres watching the first-day show of the film. Sidharth Malhotra and Kiara Advani, one of the most adorable couples, also cannot keep themselves away and were spotted watching Jawan with their family. The video has gone viral on social media.In the video, shared by Viral Bhayani, we can see Sidharth wearing casuals and Kiara in a pink colour outfit waiting for the lift. Kiara’s parents are seen with them. Both are looking very cute together. Talking about Jawan, the film stars Nayanthara, Sanya Malhotra, Vijay Sethupati and many more. Many celebrities took to social media today to wish Shah Rukh Khan the very best.Watch the video here: A post shared by Manav Manglani (@manav.manglani)Taking to Instagram Stories, Kangana Ranaut wrote, “From being the ultimate lover boy of the nineties to a decade long struggle again to reinvent his connection with his audience in his late forties to mid fifties and ultimately rising as the quintessential Indian mass super hero at the age of 60 (almost) is nothing short of super heroic even in real life. I remember the time when people wrote him off and mocked his choices but his struggle is a master class for all those artists who enjoying long careers but must reinvent and reestablish. SRK is the cinema God that India needs not just for hugs or dimples but for some serious world saving as well. Bowing down to your perseverance, hard work and humility King Khan.”According to a News18 exclusive review, director Atlee finally reminds us how it is done with superstar Shah Rukh Khan in Jawan. Atlee serves a hardcore masala film that’s not inventive or path-breaking by any standard but executes it well. He mixes this age-old success formula with his deadpan and dark humour, and things get pretty delectable in Jawan. Jawan is nothing less than an event since it marks Shah Rukh Khan’s return to the big screen after delivering a blockbuster in Pathaan. It is an ambitious vigilante action thriller that plays to the gallery and lives up to the hype. Far-fetched in writing but high on star power and style, Jawan is a complete masala entertainer which slowly but steadily finds its footing.</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/movies/kiara-advani-sidharth-malhotra-watch-srks-jawan-on-first-day-video-goes-viral-watch-8568538.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BCCI to Release 400,000 More Tickets in Next Phase of Sales for ICC Cricket World Cup 2023 </t>
-  </si>
-  <si>
-    <t>Given the ‘high demand’ for ICC Cricket World Cup tickets, the Board of Control for Cricket in India has decided to release 400,000 more in their next phase of sales, BCCI said in a statement on Wednesday.“The Board of Control for Cricket in India (BCCI) acknowledges the high demand for tickets for the ICC Men’s Cricket World Cup 2023,” the statement read.“After discussions with the hosting state associations, the BCCI has announced the release of approximately 400,000 tickets for the highly anticipated tournament. This measure is aimed at accommodating as many passionate cricket fans as possible, ensuring their participation in this historic event.“Cricket enthusiasts from around the world can now secure their seats to witness the cricketing extravaganza of the year. Fans are encouraged to act promptly to secure their tickets, as tickets are expected to be in high demand, given the immense global interest in the event.“The general sale of tickets for all matches of the ICC Men’s Cricket World Cup 2023 will commence from 8:00 PM IST onwards on September 8, 2023,” the statement added.Asia Cup 2023 Full Schedule | Asia Cup 2023 Complete Results | Asia Cup 2023 Full CoverageThe general public can purchase tickets by visiting the official ticketing website of the ICC Men’s Cricket World Cup 2023BCCI also added that, “Fans will be notified of the further sale of tickets in the next phase in due course.”“The BCCI deeply acknowledges that fans are the heartbeat of the tournament, and their unwavering passion, engagement, and contributions are pivotal to the success of the ICC Men’s Cricket World Cup 2023,” BCCI added in their statement.This comes after an exclusive report by News18 Cricketnext that found some tickets for the marquee India vs Pakistan match in the 2023 World Cup is being sold at Rs 19,51,580 each on third-party websites.ALSO READ | World Cup 2023 Match Ticket Prices: IND vs PAK for Rs 19,00,000 Per Pass; Rs 9,31,295 for IND vs AUSTicket sales began with non-India games from August 24 for Mastercard users while general public got to access tickets on sales from August 25, followed by India matches sales from August 29 to September 3. The sales for semi-final and final tickets will happen on September 14 and 15.The first lot of tickets for the World Cup, including the marquee India-Pakistan clash in Ahmedabad was been sold out within an hour after ICC’s ticketing partner opened its exclusive pre-sale window.The BCCI and ICC had opted for a staggered sale process to offer a smooth experience to the fans after revising the schedule of as many as nine games after announcing the full schedule in June.In contrast, the schedule of the previous World Cup in England and even the 2011 edition in India was announced well in advance.(With inputs from Agencies)</t>
-  </si>
-  <si>
-    <t>cricketnext</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/cricketnext/bcci-release-400000-more-tickets-sales-next-phase-icc-mens-cricket-world-cup-2023-8566823.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rashmika Mandanna's New Photo Sparks Live-In Rumours With Vijay Deverakonda, Fans Go Crazy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rashmika Mandanna has fans convinced that she is reportedly living with Vijay Deverakonda. According to a viral post on Reddit, Rashmika’s recent Instagram photo was taken at Vijay’s apartment’s terrace in Hyderabad. In the photo, Rashmika can be seen all smile as she looks gorgeous in a stunning saree. However, what grabbed netizens’ attention was the backdrop in the photo which looked quite similar to that of Vijay’s recent picture, where he is striking a pose on the terrace of his bungalow.As soon as the post went viral on the internet, fans began speculating that the duo was indeed together. One fan commented, “I’ve been saying they’ve been together for at least 3-4 years now.” Another one said, “Heard that they are engaged. Not sure how true this is.” Meanwhile, Vijay recently said that he believed in the institution of marriage. He confessed that he sees himself as a married man in the near future. However, he remained tight-lipped about his partner.At the trailer launch of Kushi, Vijay said, “I think I have become comfortable with the idea. Before marriage was a word that no one was allowed to say around me. It would immediately agitate and irritate me. But now, I am having conversations about it. I am enjoying watching my friends being married. I am enjoying the happy marriages and I am enjoying the troubled marriages, everything is entertaining. But I hope to have a married life of my own and that’s chapter in life that everyone should experience.”Rashmika Mandanna and Vijay Deverakonda often grab headlines for their romance rumours. Their undeniable chemistry has been the topic of discussion on social media ever since they starred together in movies like Geetha Govindam and Dear Comrade. </t>
-  </si>
-  <si>
-    <t>https://www.news18.com/movies/rashmika-mandanna-new-photo-sparks-live-in-rumours-with-vijay-deverakonda-fans-go-crazy-8565618.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Malaika Arora Shares Cryptic Post Amid Breakup Rumours, 'If You Don't Like How She Is Acting...' </t>
-  </si>
-  <si>
-    <t>Amid the break up rumours of Malaika Arora and Arjun Kapoor, the former recently took to her Instagram handle to share a cryptic post addressing about the rough patch in their relationship. The note talked about treating women right. The post read, ” A woman becomes a reflection of how you treat her. If you don’t like how she’s acting, look at how you are treating her.”She also shared a Good Morning note which read, “The best way to take care of the future is to take care of the present moment.”Malaika Arora and Arjun Kapoor’s breakup rumours made headlines after netizens noticed that the Bollywood diva neither commented nor liked Arjun’s latest social media pictures. While the two have not issued any official statement regarding their alleged breakup as of now, it was recently claimed that Arjun is now dating Kusha Kapila. The two recently attended a party at Karan Johar’s residence when their group pictures also went viral on social media. More fuel was added to this speculated fire after Malaika unfollowed Arjun’s family members on Instagram. This included his father Boney Kapoor, uncle Anil Kapoor and sisters Anshula Kapoor, Janhvi Kapoor and Khushi Kapoor. Amid all these, Malaika and Arjun were spotted a couple of times stepping out for lunch and dinner dates rubbishing these rumours. However  fans again grew curious after Arjun was missing from Malaika’s Onam celebrations this year. Malaika had hosted a Sadhya lunch for her close friends at her mother’s Joyce’s house. Neither Arjun nor Malaika has given any statements about these rumours.</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/movies/malaika-arora-shares-cryptic-post-amid-breakup-rumours-with-arjun-kapoor-8564271.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Salman Khan Turns Heads at Gadar 2 Success Party, Teaches Kartik Aaryan How To Pose; Watch Video </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salman Khan did not shy away from teaching Kartik Aaryan how to pose on the red carpet of the Gadar 2 success party. On Saturday night, the Tiger 3 star was spotted at the Gadar 2 bash. The superstar was seen wearing a black shirt with a pair of denim pants. While he posed for a few solo photos, Salman was soon jointed by Kartik Aaryan. Dressed in a mustard colour shirt and a pair of black pants, Kartik stood beside Salman and they posed for the camera. However, it seemed like Salman was not impressed with his pose. In a video now going viral, Salman was seen teaching Kartik how to strike a powerful pose. Kartik followed his lead and tried recreating his pose but soon broke into splits, leaving Salman smiling. Watch the video below: A post shared by Voompla (@voompla)Salman joined other superstars such as Shah Rukh Khan and Aamir Khan. The trio was spotted making their way to the party at different times of the night. While Shah Rukh and Aamir were seen posing with Sunny after the party, Salman wasn’t spotted with Sunny on the red carpet. Nevertheless, our filmy hearts were jumping with joy to see the film industry come together to celebrate Gadar 2’s success. Meanwhile, Kartik also made heads turn when he was spotted leaving the party with ex-girlfriend Sara Ali Khan and Kriti Sanon. In a video going viral, Kartik and Sara were seen giving each other a warm hug before they headed to their cars. A post shared by Manav Manglani (@manav.manglani)Gadar 2 has done phenomenal business at the box office. The film is eyeing the Rs 500 crore club at the box office. Starring Sunny Deol in the lead, Gadar 2 is the second biggest blockbuster of the year, after Pathaan. </t>
-  </si>
-  <si>
-    <t>https://www.news18.com/movies/salman-khan-turns-heads-at-gadar-2-success-party-teaches-kartik-aaryan-how-to-pose-watch-video-8561728.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Petrol, Diesel Fresh Prices Announced For August 30: Check Fuel Rates In Your City </t>
-  </si>
-  <si>
-    <t>Petrol, and Diesel Prices on August 30: The price of Petrol and Diesel remained the same on Tuesday, August 30 across major cities like New Delhi, Kolkata, Mumbai, and Chennai. The petrol and diesel rates for each day, whether new or constant, are announced at 6 am on the day. These, however, vary from state to state due to value-added tax (VAT), freight charges, local taxes, etc.Petrol has become costlier by 37 paise and diesel by 34 paise in Bihar. Petrol and diesel have become costlier by 47 paise in Chhattisgarh. The price of petrol diesel has also increased in Himachal Pradesh, Madhya Pradesh, Kerala and Odisha. On the other hand, petrol and diesel have become cheaper by 70 paise in Gujarat. Petrol has become cheaper by 89 paise and diesel by 86 paise in Maharashtra. Similarly, petrol has become cheaper by 51 paise and diesel by 49 paise in Punjab. Petrol-diesel has also become cheaper in UP.At present, petrol in Delhi is being sold at Rs 96.72 a litre while diesel is being sold at Rs 89.62 a litre. Whereas in Mumbai, petrol is available at Rs 106.31 and diesel at Rs 94.27 per litre. While petrol in Kolkata is Rs 106.03 and diesel is Rs 92.76 per litre. On the other hand, petrol is being sold at Rs 102.63 and diesel at Rs 94.24 per litre in Chennai.In India, oil marketing companies (OMCs) such as Indian Oil, Bharat Petroleum and Hindustan Petroleum determine petrol and diesel prices. This is done on a daily basis, and rates are determined in accordance with the price of crude oil throughout the world.Why do fuel prices vary across states?How to Check Petrol, and Diesel Prices City-Wise?You can also know the daily rate of petrol and diesel through SMS. Indian Oil customers can get information by sending RSP and their city code to 9224992249 and BPCL customers can get information by sending an SMS to 9223112222 by typing RSP and their city code. Whereas, HPCL consumers can know the price by sending HPPrice and their city code to 9222201122.</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/business/petrol-diesel-fresh-prices-announced-for-august-29-check-fuel-rates-in-your-city-2-8556439.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kushi: Samantha Ruth Prabhu and Vijay Deverakonda's Emotional Climax Leaked? Here's What We Know </t>
-  </si>
-  <si>
-    <t>Samantha Ruth Prabhu will be romancing Vijay Deverakonda in her upcoming movie Kushi. The trailer has already generated curiosity among fans and the songs are being loved by all.Even as the promotions are on, speculations are rife about its climax. Sources reveal that the movie will end on an emotional note, as the main characters navigate health and personal challenges, touching upon the complexities of relationships. While director Shiva Nirvana initially hinted at a light story, new reports indicate that the film will also touch on sensitive topics like miscarriage, handled with care. The emotional journey blends action and comedy for a well-rounded movie experience. The standout moments are expected to be the performances of Vijay and Samantha in the final scenes.With the film’s release date approaching, advance bookings have already kicked off on a global scale. However, the opening of advance sales in India is still pending. The most recent report suggests that the early bookings within the country will begin on Wednesday. Kushi, a pan-Indian romantic drama directed by Shiva Nirvana, features Vijay Deverakonda and Samantha Ruth Prabhu in the lead roles. The film also stars Jayaram, Sachin Khedekar, Murali Sharma, Lakshmi, Ali, Rohini, Vennela Kishore, Rahul Ramakrishna, Srikanth Iyengar and Saranya Pradeep. Hesham Abdul Wahab is the composer of the film’s music, and it is produced by Mythri Movie Makers. The film recently received a U/A certificate from the censor board and is slated for release on September 1.Meanwhile, Samantha is an acting break in New York, seeking treatment for myositis. The actress has been routinely sharing photos and videos from her break, with her fans. Samantha will be also seen in the Indian leg of the Russo Brothers’ web series Citadel with Varun Dhawan. The show is directed by filmmaker duo Raj and DK.</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/movies/kushi-samantha-ruth-prabhu-and-vijay-deverakondas-emotional-climax-leaked-heres-what-we-know-8554907.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Deepika Padukone Says 'I Don't Need To Move To Another Country...'; Priyanka Chopra Fans React </t>
-  </si>
-  <si>
-    <t>After championing South cinema and Bollywood, Deepika Padukone made her Hollywood debut in 2017 with Vin Diesel‘s XXX- Return of Xander Cage. While Priyanka Chopra was already featuring in Quantico by then, her Hollywood film debut, Baywatch, came a few months later in the same year. Netizens were quick to compare the two actresses based on their public appearances on foreign turf. A quote posted by one of Deepika’s fan accounts has now gone viral on Reddit and sparked a debate about whether Deepika was dating a dig at Priyanka or not.As per the post, Deepika said, “I have global ambitions, but much of it is being beyond a movie star. There is a lot I want to do globally as an individual. I find it fascinating and strange at the same time to think that we were almost apologetic about who we are and where we came from. We have always overcompensated because of this. I don’t feel the need to move to another country or speak the way they speak in order to be accepted. Has the journey taken longer? Yes. But I sleep better knowing I am in my culture and I did it on my own terms.”The quote was posted on the microblogging site with the caption, “Is this supposed to be another dig at Priyanka?” This question has now divided the internet. One person wrote, “PC is the only relevant Bolly star in Holly right now so subconsciously it seems to be dig coz the ‘move into another country’ and ‘speak the way they speak’ is so specific and direct lol.” Another added, “This is sad PC has only ever had good things to say about her.” “There are certain comments saying you’re pitting women against each other OP, but sigh… this does seem like a dig at PC,” one person commented.However, many others disagreed and defended Deepika against this assumption. One person wrote, “Isme Priyanka beech mein kaha aagayi??? Just to garner hate for Deepika some here just assume things.” Another added, “I don’t really see it as a dig towards PC but more as ‘I want to do things on my own terms and not go through the same hurdles again in a brand new industry, especially Hollywood’.” “How is this a dig? If you look at her Time and Cannes interviews, she’s talked a lot about India having way more potential than the West gave it credit for. I think this part is in tandem with that.”Meanwhile, Deepika Padukone and Priyanka Chopra have shared a good bond over the years. They worked together in Sanjay Leela Bhansali’s Bajirao Mastani with Ranveer Singh and developed an instant camaraderie.</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/movies/deepika-padukone-says-i-dont-need-to-move-to-another-country-priyanka-chopra-fans-react-8578160.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Furious Over Annamalai, AIADMK’s D Jayakumar Says No Alliance with BJP, Decision on Tie-up During Elections </t>
-  </si>
-  <si>
-    <t>In a setback to the Bharatiya Janata Party in Tamil Nadu ahead of the 2024 Lok Sabha elections, a senior leader of AIADMK on Monday said his party has no alliance with the BJP, saying any decision regarding the coalition will be taken during polls.However, top BJP sources said any issues between AIADMK and the state party unit will be sorted out amicably. Rumours of no alliance between two parties are untrue, they said.AIADMK’s D Jayakumar lashed out at the BJP state chief K Annamalai for his criticism of Dravidian stalwart C N Annadurai. He further said that his party workers will not tolerate any insult to the late chief minister.“Annamalai doesn’t desire an alliance with AIADMK although BJP workers want it. Should we tolerate all this criticism of our leaders? Why should we carry you? BJP can’t set foot here. Your vote bank is known. You are known because of us,” the former minister told reporters.Jayakumar said that while Annamalai had made critical remarks about AIADMK leaders including the late J Jayalalithaa, the party had sought that the BJP leader be restrained.“He is criticising Anna, Periyar and the General Secretary. No cadre would accept this. Tomorrow we have to work on the field. So without any option, we announced this. There won’t be any impact on us with this decision. We are confident of our victory,” he said.Meanwhile, Tamil Nadu BJP vice-president Narayanan Thirupathy said that the alliance between the AIADMK and the BJP is ‘intact rock solid’.The alliance between the @AIADMKOfficial &amp; the @BJP4India is intact rock solid. I regret that my interview to some channels have carried a different meaning and version on the alliance. The alliance and its functioning are decided only by the Senior leadership of @BJP4India…— Narayanan Thirupathy (@narayanantbjp) September 18, 2023In 2019, the BJP was wiped out in Tamil Nadu and its partner AIADMK was decimated to only one seat. On the other hand, the DMK-Congress alliance won 30 (Congress 8 &amp; DMK 24) out of 39 seats in the state.(with PTI, ANI inputs)</t>
-  </si>
-  <si>
-    <t>elections</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/elections/aiadmk-bjp-d-jayakumar-tamil-nadu-annamalai-nda-no-alliance-2024-lok-sabha-elections-latest-news-8582367.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IND vs AUS 2023: Ravichandran Ashwin Recalled; Rohit Sharma and Virat Kohli Rested for First Two ODIs </t>
-  </si>
-  <si>
-    <t>Ravichandran Ashwin has been recalled in India’s ODI squad for the upcoming three-match ODI series against Australia while seniors like Rohit Sharma, Virat Kohli, Hardik Pandya along with Kuldeep Yadav have been rested for the first two games. In Rohit’s absence, KL Rahul will be leading in the first two matches.The rested seniors though will be back for the final match for which the selectors have named an extended 17-man squad with Ashwin and Washington Sundar retaining their spots. Axar Patel, who picked up an injury during the Asia Cup, will miss the first two matches but has been included for the 3rd ODI subject to fitness.Ruturaj Gaikwad, Tilak Varma have been included for the first two matches as well.“He’s been consistently playing Test cricket. With guys like Ashwin having time on the field is not a concern. With the kind of experience he has, for guys like him it’s all in the head more than the body. Speaking to him, understanding him where he’s with this body. It’s not like he’s not played cricket, he’s not played the format (ODIs), has played TNPL. Games against Australia will give us a chance to see where’s he at,” India captain Rohit Sharma said on Ashwin’s recall during a media interaction on Monday night.“Rohit is taking a break. Others are getting a breather. Rohit and Virat have been around forever. Hardik has been there. Kuldeep too. They got fair amount of cricket in Asia Cup. Guys need mental break and come the third game our main players will play,” BCCI chief selector Ajit Agarkar said.India vs Australia ODI Squad Announcement: Live UpdatesSquad for the first two ODIs: KL Rahul (Captain), Shubman Gill, Ruturaj Gaikwad, Shreyas Iyer, Ishan Kishan, Suryakumar Yadav, Ravindra Jadeja, Shardul Thakur, Jasprit Bumrah, Mohammed Siraj, Mohammed Shami, Tilak Varma, Prasidh Krishna, Ravichandran Ashwin and Washington SundarSquad for the 3rd ODI: Rohit Sharma (c), Shubman Gill, Virat Kohli, Shreyas Iyer, KL Rahul, Ishan Kishan, Suryakumar Yadav, Ravindra Jadeja, Shardul Thakur, Jasprit Bumrah, Siraj, Mohammed Shami, Hardik Pandya, Kuldeep Yadav, Axar Patel  (subject to fitness), Ravichandran Ashwin, Washington SundarAustralia squad for the series: Pat Cummins (captain), Sean Abbott, Alex Carey (wicketkeeper), Nathan Ellis, Cameron Green, Josh Hazlewood, Josh Inglis, Spencer Johnson, Marnus Labuschagne, Mitchell Marsh, Glenn Maxwell, Tanveer Sangha, Matt Short, Steve Smith, Mitchell Starc, Marcus Stoinis, David Warner, Adam ZampaThe Indian cricket team has headed home after a comprehensive win over Sri Lanka in the Asia Cup final and is expected to reassemble for the series against Australia in Mohali on September 20.India vs Australia, 1st ODI: 22 September 2023 (Friday), 1:30 PM in MohaliIndia vs Australia, 2nd ODI: 24 September 2023 (Sunday), 1:30 PM in IndoreIndia vs Australia, 3rd ODI: 27 September 2023 (Wednesday), 1:30 PM in Rajkot</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/cricketnext/india-vs-australia-2023-odi-squad-announcement-rohit-agarkar-ashwin-shreyas-kohli-siraj-gill-bumrah-pandya-axar-8582679.html</t>
+    <t>https://www.news18.com/india/canada-moves-diplomats-from-india-to-singapore-malaysia-new-delhi-mulls-more-action-sources-to-news18-8605944.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IND vs AUS: Shubman Gill Feeling Better, Not Ruled Out Yet From India's WC Opener, Confirms Rahul Dravid </t>
+  </si>
+  <si>
+    <t>Team India head coach Rahul Dravid has confirmed that star opener Shubman Gill has not been ruled out yet as he is feeling better. The young batter has been diagnosed with dengue and missed the training session in Chennai ahead of India’s World Cup opener against Australia.There are doubts over Shubman’s availability for the Australia clash but Dravid has asserted that there are still 36 hours to go and the medical team is monitoring him.“Shubman Gill is feeling better, we have 36 hours to go, medical team is monitoring him, he isn’t ruled out yet,” Rahul Dravid said in the press conference on Friday.Earlier, the Board of Control for Cricket in India (BCCI) spokesperson told News18 CricketNext that the medical team is closely monitoring the star opener’s progress.“He’s under the weather, the medical team is closely monitoring him. We are hoping he gets better soon,” says the BCCI spokesperson.Shubman has been in terrific form this year and is ranked number 2 in the ICC ODI batting charts. The 23-year-old opener has scored 1230 runs in 20 matches this year and also scored a historic double century.He also scored a century against Australia in the second ODI of the three-match series prior to the World Cup.In case Shubman misses out on Sunday’s clash, India will most likely go for Ishan Kishan as the opening partner for skipper Rohit Sharma. Kishan has also been in decent touch in recent times and also opened the innings for India in first two ODIs against Australia.</t>
+  </si>
+  <si>
+    <t>cricket</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/cricket/ind-vs-aus-shubman-gill-feeling-better-not-ruled-out-yet-from-indias-world-cup-opener-confirms-rahul-dravid-8606096.html</t>
   </si>
 </sst>
 </file>
@@ -624,245 +624,245 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
         <v>37</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
         <v>40</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
         <v>50</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
         <v>53</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
         <v>60</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
         <v>63</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>64</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
         <v>67</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>68</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>69</v>

--- a/server/News18.xlsx
+++ b/server/News18.xlsx
@@ -28,127 +28,133 @@
     <t>URL</t>
   </si>
   <si>
-    <t xml:space="preserve"> Shubman Gill Tests Positive For Dengue, Doubtful For India's World Cup Opener Against Australia </t>
-  </si>
-  <si>
-    <t>The Indian team’s worries ahead of its opening World Cup game against Australia has been compounded by in-form Shubman Gill’s health issues and the batter is a doubtful starter for Sunday’s match.Gill, India’s most prolific batter in ODIs in recent times, is reportedly down with high fever and has tested positive for dengue.“Shubman has had high fever since landing in Chennai. His tests are being done. He will have tests on Friday and a call will be taken on his participation in opening game,” a BCCI source privy to team developments told on the condition of anonymity.Those in the know said that the Indian team management is monitoring Gill’s progress and a call on his availability will be taken after another round of tests on Friday.READ: India vs Australia, World Cup: Hardik Pandya Returns Refreshed, Fires on All Cylinders in NetsPhysical recovery of dengue patients vary and it normally takes around 7-10 days to be up and match ready.“Let’s not jump the gun. If it’s normal viral fever, he could play on antibiotics but it’s completely the medical team’s call,” the source said.In the case that Gill is dropped due to the illness, it opens up opportunities for both KL Rahul and Ishan Kishan, one of whom will be chosen to open the innings with Rohit Sharma.But, Gill’s absence will most definitely deliver a gut punch to India’s batting prowess. The swashbuckling youngster has been the Indian side’s most reliable scorer this year and has proven himself as one of the best openers in world cricket at the moment with an average of over 70 runs in ODIs this year.“He’s under the weather, the medical team is closely monitoring him. We are hoping he gets better soon. We will have to wait for more updates from the medical team,” said a BCCI spokesperson.India at Asian Games: FULL COVERAGE | MEDAL TALLY | RESULTS | SCHEDULE</t>
+    <t xml:space="preserve"> Ganesh Chaturthi 2023: 5 Easy Homemade Modak Recipes for Vinayaka Chaturthi! </t>
+  </si>
+  <si>
+    <t>Ganesh Chaturthi, the festival celebrating the birth of Lord Ganesha, is a time of joy, devotion, and delicious treats. This year the festival will be celebrated from Tuesday, September 19 to Thursday, September 28. Among the many customs and rituals associated with this festival, one of the most cherished is the offering of modaks to Lord Ganesha. Modaks, sweet dumplings with a variety of fillings and flavours, are believed to be Lord Ganesha’s favourite treat. With the much-awaited festival just around the corner, let’s explore five delightful modak recipes that you can prepare at home in a few easy steps.Ukadiche Modak, also known as steamed modaks, is one of the classic and highly favoured varieties of modak.Ingredients:Steps:For those with a sweet tooth and a love for chocolate, Chocolate Modak is a modern twist on the traditional favourite.Ingredients:Steps:Rose Gulkand Modak is a fragrant and unique variation of this beloved treat.Ingredients:Steps:Fried Modak, also known as Talniche Modak, offers a delightful contrast to the steamed versions.Ingredients:Steps:For those looking to enjoy the traditional flavours of modak without the added sweetener, sugar-free Modak is the perfect choice. This recipe replaces traditional sugar with natural sweeteners.Ingredients:Steps:</t>
+  </si>
+  <si>
+    <t>lifestyle</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/lifestyle/ganesh-chaturthi-2023-5-easy-homemade-modak-recipes-for-vinayaka-chaturthi-8573560.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nipah Virus Brings Back Covid-like Scare; Schools Shut in Kerala, Rajasthan And Karnataka on Alert </t>
+  </si>
+  <si>
+    <t>One more case of Nipah infection has been confirmed in Kerala’s Kozhikode district. State health minister Veena George’s office said that a 39-year-old man has been confirmed with the Nipah virus after his samples turned positive.He was under observation in a hospital. He had sought treatment at a private hospital where Nipah-positive affected were treated for other ailments earlier, it said in a statement on Friday. With this, the total number of Nipah cases has gone up to six in Kozhikode.• The ICMR has delivered the antibody requested by Kerala to combat the deadly virus. A mobile laboratory was also sent to ground zero to enable the state to test samples.• The ICMR’s National Institute of Virology (NIV) in Pune sent its mobile BSL-3 (Biosafety Level-3) laboratory to Kozhikode to test samples for the virus in the district itself after five cases, including two deaths, were recorded.• A five-member central team comprising experts from the National Centre for Disease Control, RML Hospital and NIMHANS has been stationed in Kerala to take stock of the situation and assist the state government in the management of the Nipah infection.• Apparently, samples will also be collected from bats to check for the virus’ presence.• Additionally, a fully-equipped mobile virology testing laboratory of the Rajiv Gandhi Centre for Biotechnology (RGCB) was dispatched to the northern Kerala district to strengthen virus testing and detection.• The district administration has already declared a holiday for educational institutions in Kozhikode on Saturday (September 16), in addition to Thursday and Friday.• George said the state has been vigilant and Kozhikode’s neighbouring districts — Kannur, Wayanad and Malappuram — should also be cautious.• Around 11 wards in Kozhikode district were declared as containment zones till Wednesday evening.ALSO READ | ‘Check Fruits Coming from Kerala’: Alert in Karnataka Amid Nipah Virus, Hospitals Prepped• The Rajasthan government on Thursday directed medical officials to remain “alert” regarding any Nipah outbreak in the wake of cases being reported from Kerala’s Kozhikode district.• The medical and health services department director has issued an advisory in this regard to the principals of all medical colleges and chief medical and health officers of all districts. The department has also issued an advisory for health workers.(With inputs from PTI)</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/india/nipah-virus-news-top-points-kerala-shut-time-restricted-rajasthan-karnataka-8578254.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jawan Box Office Day 8: Shah Rukh Khan Starrer Stays Strong, Inches Close To Rs 400 Crore Mark </t>
+  </si>
+  <si>
+    <t>Even eight days after its release, Shah Rukh Khan starrer Jawan has refused to slow down at the box office. The film continues to earn in double digits and is now inching close to Rs 400 crore mark. As reported by the industry tracker Sacnilk, early estimates suggest that Jawan earned Rs 19.50 crore on Thursday, September 14. With this, the film’s total collection stands at Rs 388.72 crore. This also means that the Atlee directoral may cross the Rs 400 crore mark on Friday, September 15. Released on September 7, Jawan is getting immense love from the audience. Written and directed by Atlee, besides Shah Rukh Khan, the film alos stars Nayanthara, Ridhi Dogra and Vijay Sethupathi in key roles. Deepika Padukone also plays an extended cameo in the movie. Jawan has broken several box office records ever since its release. It has become the best-ever Hindi opener at global box office and in the domestic market too. The film also holds the record of highest single-day earner of all time. It also became the first Hindi movie to enter Rs 200 crore club in just three days.Several celebrities including Anupam Kher, Akshay Kumar, Allu Arjun, SS Rajamouli, Kiara Advani, Sidharth Malhotra and Ameesha Patel among others have given a shoutout to Shah Rukh Khan for the success of his movie. On Thursday, Karan Johar also penned down a long note for his ‘bhai’ SRK and praised him for the blockbuster Jawan has become. Recently, Shah Rukh Khan also took to the microblogging site X, formerly known as Twitter and thanked fans for showering immense love on his film. “Thank you for all the love and appreciation for #Jawan!! Stay safe and happy… Please keep sending in the pics and videos of all of you enjoying at the movies…. And I will be back soon to see all of them! Until then… Party with Jawan in the theatres!! Lots of love and gratitude!” SRK wrote.</t>
+  </si>
+  <si>
+    <t>movies</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/movies/jawan-box-office-day-8-shah-rukh-khan-starrer-stays-strong-inches-close-to-rs-400-crore-mark-8578126.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jawan Actress Priyamani Says Director Atlee 'Cheated' Her; Check How </t>
+  </si>
+  <si>
+    <t>If there is one movie every cinephile is gushing about nowadays, it is the Shah Rukh Khan starrer Jawan. The Atlee-directed film has been setting the box office on fire since its release. Jawan set a new record in the Hindi film industry by crossing the Rs 300 crore mark in the fastest time, a record previously held by another Shah Rukh Khan starrer Pathaan. One of the distinguishing facts about Jawan is that every cast member is receiving praise for their portrayal of their characters and it is not just the King Khan walking away with the thunder. One of them is South actress Priyamani who has appeared in films of all the South Indian languages. Priyamani played Lakshmi, a trusted member of Shah Rukh Khan’s deadly girl squad in Jawan and nailed the role with absolute perfection. Priyamani, does, however, have a grudge against director Atlee. Her grudge stems from a viral rumour that most of the country was subjected to in the weeks leading up to Jawan’s release.Prior to the release, it had widely been reported that Tamil star Thalapthy Vijay, who is a frequent collaborator of Atlee, would have a cameo in Jawan as well. It, however, turned out to be false after the film was released. Priyamani said in a recent interview that Atlee had actually told her that Vijay was on board the film along with Shah Rukh. An excited Priyamani had even requested a few scenes with Vijay, to which Atlee had agreed.Priyamani expressed her disappointment when, during the shoot, Vijay was not a part of Jawan. She joked that Atlee had cheated her in this fashion. The actress made this complaint in all good faith though.Priyamani had previously also opened up about how Shah Rukh Khan insisted on having her next to him in the dance sequence of the song Zinda Banda after choreographer Shobi Master placed her behind him. According to her, Shah Rukh had said that he had learnt dance from her during Chennai Express and thus wanted her beside himself, not behind.</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/movies/jawan-actress-priyamani-says-director-atlee-cheated-her-check-how-8577248.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mrunal Thakur Clocks 5 Years In Bollywood, Says 'Will Become Irrelevant If You Don't...' </t>
+  </si>
+  <si>
+    <t>Actress Mrunal Thakur, known for her remarkable journey from television to an impressive five-year stint in Bollywood films and now, one year since her impactful debut in the South Indian film industry, speaks candidly about her unwavering commitment to explore new horizons in the world of cinema. The actress completes her 5 years of in the film industry.Having begun her cinematic journey with the acclaimed film Love Sonia, Mrunal Thakur has consistently pushed the boundaries of her acting career. She believes that the art of acting is a continuous journey, and she’s enthusiastic about embracing new challenges and opportunities.“I have so much more to explore,” says Mrunal. “There are numerous languages of cinema to be a part of, and so many genres that excite me. I’m ready to experiment and immerse myself in the diversity that the world of films offers. As an actor if you don’t have the appetite to accept new challenges and find ways to reinvent the wheel, and be open to different kinds of work, you will become irrelevant too far, too soon. I have gone from doing television, to indie films, to commercial to south, have worked in 3 languages now and I have committed to myself to keep trying things that excite me. This is hunger is what has helped me to be where I’m today”. In recent times, Mrunal Thakur has been on a signing spree, collaborating with some of the most prominent names in both the Bollywood and Southern film industries. Her dedication to her craft and her ability to adapt to various roles have earned her opportunities to work alongside A-listers in the industry.One of her latest projects includes the Telugu film “Hi Nanna,” which has generated significant buzz among audiences. The trailer has garnered much attention, and fans are eagerly anticipating her performance in this venture.Currently, Mrunal Thakur is in the midst of filming for “VD13,” a highly anticipated project alongside Vijay Devakonda, further solidifying her presence in the South Indian film industry.</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/movies/mrunal-thakur-clocks-5-years-in-bollywood-says-will-become-irrelevant-if-you-dont-8577668.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sexy! Shehnaaz Gill Raises The Heat With Her Bold Moves In Racy Dress, Hot Video Goes Viral; Watch </t>
+  </si>
+  <si>
+    <t>Shehnaaz Gill has taken the internet by storm with her sexy video which is going viral on the internet. Shehnaaz on Tuesday attended an uber-cool party as a part of promotion for her upcoming movie ‘Thank You For Coming,’ along with her co-stars Bhumi Pednekar, Kusha Kapila, Dolly Singh and Shibani Bedi. Shehnaaz looked sensational as she arrived in a very hot outfit.The former Bigg Boss contestant opted for a racy black dress which featured a plunging neckline. She styled her hair in loose beachy waves and completed her look with a pair of high heels. A post shared by Viral Bhayani (@viralbhayani)Rhea Kapoor’s husband, Karan Boolani, is set to direct his first film, Thank You For Coming, with Bhumi, Shehnaaz and Anil Kapoor in leading roles. The trailer of the film was released recently. The film also features Pradhuman Singh Mall, Natasha Rastogi, Gautmik, Sushant Divgikar, Saloni Daini, Dolly Ahluwalia and Karan Kundrra in key roles. Produced by Rhea Kapoor, Ektaa Kapoor and Shobha Kapoor under the Balaji Motion Pictures banner, the film is set to have its world premiere at the Toronto International Film Festival 2023 on September 15. The film deals with a taboo subject of women’s orgasm. Bhumi’s character in the film comes across as a single woman who struggles to climax. The cast of the film has been posting thought-provoking insights on social media, talking about how women experience a 30-60 percent orgasm rate during sexual encounters, while men typically fall within the 70-100 percent range.</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/movies/shehnaaz-gill-raises-the-heat-with-her-bold-dance-moves-in-hot-dress-sexy-video-goes-viral-watch-8575302.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Priyanka Chopra Joins Daughter Malti Marie Jonas's Playdate With Preity Zinta's Kids; See Photos </t>
+  </si>
+  <si>
+    <t>Priyanka Chopra is a global star. Not only does she enjoy unparalleled stardom in India but in the USA as well. As such, the Desi girl is bound to make headlines whenever she shares something on her social media timeline or steps out of home. Maintaining that trajectory, Priyanka Chopra, who is a doting mother to Malti Marie Jonas, organised a playdate for her with her friends, since Nick has been busy with the Jonas brothers tour. The same was also attended by Preity Zinta’s kids Jai and Gia. On Thursday, Priyanka Chopra dropped a whole bunch of pictures in her Instagram Stories, indicating that Malti had an eventful day. In the first picture, we can see PeeCee holding Malti by her waist, as she played with her toys. The following slides showed Malti and her friends having an amazing playdate. Priyanka Chopra even captioned the first slide ‘Play Date with friends(with heart eyes emojis)”. Take a look:Meanwhile, Preity Zinta shared a picture of three cookies with the names ‘Malti’, ‘Jai’ and ‘Gia’ plastered on them with choclate frosting. She wrote, “Generation next(with three heart emojis). #playdate #Ting #cuties!”Recently, Priyanka Chopra made headlines for her hot appearance at New York Fashion Week to celebrate the “Victoria’s Secret World Tour” event. For the special night, Priyanka was seen wearing a sheer dress that displayed her black lingerie. The actress left her hair open for the night and sported minimal make-up, allowing her outfit grab all the attention.The event was also attended by Doja Cat, Naomi Campbell, Adriana Lima, Candice Swanepoel, Gigi Hadid and Lily Aldridge. Speaking with the press at the event, Priyanka showed Nick her love and support. Priyanka, who has been attending Jonas Brothers concerts lately, was asked to describe her perfect outfit. “Well it’s different if I am going to someone else’s concert and if I am going to my husband’s concert. Because when I go to my husbands concert, I am really proud and I am excited seeing him up there and I am his number one fan, a lot of people would debate me on that and I agree,” she said.Priyanka was last seen opposite Richard Madden in Prime Video’s spy-thriller series Citadel. The series was created by Josh Appelbaum, Bryan Oh and David Weil. It also featured Stanley Tucci, Lesley Manville and Ashleigh Cummings in pivotal roles. The actor will soon begin shooting for Farhan Akhtar’s Jee Le Zara with Katrina Kaif and Alia Bhatt. She was also filming for Heads of State.</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/movies/priyanka-chopra-joins-daughter-malti-marie-jonass-playdate-with-preity-zintas-kids-see-photos-8577424.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tamannaah Bhatia Is 'Girlfriend Goals' As She Turns Pap For Vijay Varma, Couple Leaves Holding Hands </t>
+  </si>
+  <si>
+    <t>Tamannaah Bhatia and Vijay Varma have been ruling hearts and headlines ever since the two announced their relationship. They never shy away from expressing love for one another and are often seen making public appearances together. On Friday night too, the two actors made a stylish appearance as they attended an event in Mumbai. However, a video of Tamanaah and Vijay has now surfaced on social media which has left everyone in complete awe.In the viral video, Vijay Varma can be seen posing for the paparazzi. He sported a black and silver suit and looked stunning as always. However, it wasn’t just the paparazzi who clicked his pictures but Tamannaah too. In the clip, the Babli Bouncer actress can be seen taking her boyfriend’s pictures as he posed for the shutterbugs. A post shared by Instant Bollywood (@instantbollywood)The video has left fans completely impressed who are now declaring Tamannaah Bhatia and Vijay Varma the ‘cutest’ couple of the tinsel town. Reacting to the viral clip, one of the fans wrote, “Bhabhi photo click kar rhi hai”. Another social media user commented, “This is so cute yrr”. A third user called them “couple goals”.Meanwhile, Tamannaah Bhatia and Vijay Varma were also seen holding hands as they left the venue after the event ended. Watch it here: A post shared by Viral Bhayani (@viralbhayani)For the unversed, Tamannaah Bhatia announced her romantic relationship with Vijay Varma in an interview with Film Companion earlier this year, when she said, “I don’t think you can get attracted to someone just because they are your co-star. I have had so many co-stars. I think if one has to fall for someone, feel something for someone it’s definitely more personal, it’s nothing to do with what they do for a living, I mean that’s not the reason why this would happen.” The two then featured together in Lust Stories 2, for which Tamannaah even broke her no-kiss on-screen policy.</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/movies/tamannaah-bhatia-is-girlfriend-goals-as-she-turns-pap-for-vijay-varma-couple-leaves-holding-hands-8570056.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shah Rukh Khan Jumps Off An Edge, Performs Top-Notch Action In Unseen Video From Jawan Sets; Watch </t>
+  </si>
+  <si>
+    <t>Shah Rukh Khan’s Jawan has become of the biggest blockbusters ever. It’s top notch action sequences have left fans completely impressed. Now that the Atlee directorial is in theatres, a throwback video of King Khan from the sets has surfaced on social media in which he can be seen jumping off an edge. With all the cameras and stuntmen around, Shah Rukh Khan is seen performing an action scene in the video. The video was originally shared on the microblogging site X by the action-director Ferdi Fischer. “Throwback to that unforgettable day earlier this year on the set of #Jawan with the King of Bollywood, Shah Rukh Khan! 🎬 Big ups to Spiro and #RedChilliesEntertainment for this once-in-a-lifetime gig. Don’t miss this signature wrap-around shot of SRK, captured with our cutting-edge #WarpCam prototype!” he wrote. Watch it here:  Throwback to that unforgettable day earlier this year on the set of #Jawan with the King of Bollywood, Shah Rukh Khan! 🎬 Big ups to Spiro and #RedChilliesEntertainment for this once-in-a-lifetime gig. Don't miss this signature wrap-around shot of SRK, captured with our… pic.twitter.com/S5bWZnxiWk— Ferdi Fischer (@slamartist_com) September 8, 2023Several social media users reacted to the video and hailed Shah Rukh Khan for performing his stunts on his own. “SRK Sir the action hero. Being a biggest superstar still SRK Sir does his own stunts. It’s just amazing , lot’s of respect for him,” one of the fans wrote. Another user shared, “We loved your action direction in the movie.”Written and directed by Atlee, Jawan stars Shah Rukh Khan, Nayanthara, Ridhi Dogra and Vijay Sethupathi in key roles. Deepika Padukone also plays an extended cameo in the movie. Earlier today, Shah Rukh Khan took to the microblogging site X, formerly known as Twitter and thanked fans for showering immense love on his movie. “Thank you for all the love and appreciation for #Jawan!! Stay safe and happy… Please keep sending in the pics and videos of all of you enjoying at the movies…. And I will be back soon to see all of them! Until then… Party with Jawan in the theatres!! Lots of love and gratitude!” he wrote.Meanwhile, Jawan broke all records by earning over Rs 75 crore nett in India on day 1 for all languages. It then collected Rs 53 crore on day 2. This means that the film’s total collection stands close to Rs 128 crore as of now.</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/movies/shah-rukh-khan-jumps-off-an-edge-performs-top-notch-action-in-unseen-video-from-jawan-sets-watch-8570161.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alia Bhatt, Ranveer Singh's UNSEEN Steamy Scenes From Rocky Aur Rani Kii Prem Kahaani Go Viral </t>
+  </si>
+  <si>
+    <t>Karan Johar on Thursday dropped the full version of the Saregama Caravan Medley from his blockbuster film Rocky Aur Rani Kii Prem Kahaani. The medley featured two more songs that didn’t make it to the film, owing to its 2 hour 50 minute duration.While the Saregama Caravan Medley consisted of three songs in the film version, the full version released by Dharma Productions and Saregama Music on YouTube, features two more songs including ‘Hum Tum Ek Kamre Mein’ and ‘Aao Na, Gale Lagao Na’.In the unseen footage, while Dharmendra and Shabana Azmi are seen having breakfast at a 5-star hotel, Ranveer and Alia are busy making out in the room behind the elderly couple. Alia looks stunning in a yellow sari as she gets cosy with her co-star for the steamy bedroom sequence. In another scene, Ranveer and Alia are seen making out in the corridor and on the stairs of the hotel. They’re both twinning in black.The video went viral in no time, with netizens praising Alia and Ranveer for their on-screen chemistry. While referring to Alia and Ranveer’s Gully Boy characters, one user wrote, “Giving Safeena and Murad a run for their money.” Another one said, “Ranveer Alia were just eating each other up for breakfast lunch and dinner in this medley.”Ranveer Alia were just eating each other up for breakfast lunch and dinner in this medley 🌹🌹🌹 pic.twitter.com/8exqV2W0k1— ⓡⓞⓒⓚⓨ (@unapologeticRVS) September 6, 2023giving safeena murad a run for their money 😭😭🔥🔥 https://t.co/xPF7luXytX— ♚ (@historymakerjm) September 6, 2023A post shared by Karan Johar (@karanjohar)Despite competition from the Bollywood biggies like Gadar 2, OMG 2 and Dream Girl 2, Rocky Aur Rani Kii Prem Kahaani managed to earn Rs 340 crore worldwide within a month.After a hiatus of 7 years, Karan Johar returned to director’s chair with Rocky Aur Rani Kii Prem Kahaani. The film follows the love story of Rocky (played by Ranveer), a Punjabi boy, and Rani (played by Alia), an intellectual Bengali journalist. Despite their stark differences, they fall deeply in love and try to convince their families. The film also features Dharmendra, Shabana Azmi, Jaya Bachchan and Bengali actors Tota Roy Chowdhury and Churni Ganguly.</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/movies/alia-bhatt-ranveer-singhs-unseen-steamy-scenes-from-rocky-aur-rani-kii-prem-kahaani-go-viral-8568476.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kiara Advani, Sidharth Malhotra Watch SRK's Jawan On First Day, Video Goes Viral; Watch </t>
+  </si>
+  <si>
+    <t>Shah Rukh Khan starrer Jawan has received a positive response from the audience. Right from common people to celebrities, all were spotted at the theatres watching the first-day show of the film. Sidharth Malhotra and Kiara Advani, one of the most adorable couples, also cannot keep themselves away and were spotted watching Jawan with their family. The video has gone viral on social media.In the video, shared by Viral Bhayani, we can see Sidharth wearing casuals and Kiara in a pink colour outfit waiting for the lift. Kiara’s parents are seen with them. Both are looking very cute together. Talking about Jawan, the film stars Nayanthara, Sanya Malhotra, Vijay Sethupati and many more. Many celebrities took to social media today to wish Shah Rukh Khan the very best.Watch the video here: A post shared by Manav Manglani (@manav.manglani)Taking to Instagram Stories, Kangana Ranaut wrote, “From being the ultimate lover boy of the nineties to a decade long struggle again to reinvent his connection with his audience in his late forties to mid fifties and ultimately rising as the quintessential Indian mass super hero at the age of 60 (almost) is nothing short of super heroic even in real life. I remember the time when people wrote him off and mocked his choices but his struggle is a master class for all those artists who enjoying long careers but must reinvent and reestablish. SRK is the cinema God that India needs not just for hugs or dimples but for some serious world saving as well. Bowing down to your perseverance, hard work and humility King Khan.”According to a News18 exclusive review, director Atlee finally reminds us how it is done with superstar Shah Rukh Khan in Jawan. Atlee serves a hardcore masala film that’s not inventive or path-breaking by any standard but executes it well. He mixes this age-old success formula with his deadpan and dark humour, and things get pretty delectable in Jawan. Jawan is nothing less than an event since it marks Shah Rukh Khan’s return to the big screen after delivering a blockbuster in Pathaan. It is an ambitious vigilante action thriller that plays to the gallery and lives up to the hype. Far-fetched in writing but high on star power and style, Jawan is a complete masala entertainer which slowly but steadily finds its footing.</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/movies/kiara-advani-sidharth-malhotra-watch-srks-jawan-on-first-day-video-goes-viral-watch-8568538.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BCCI to Release 400,000 More Tickets in Next Phase of Sales for ICC Cricket World Cup 2023 </t>
+  </si>
+  <si>
+    <t>Given the ‘high demand’ for ICC Cricket World Cup tickets, the Board of Control for Cricket in India has decided to release 400,000 more in their next phase of sales, BCCI said in a statement on Wednesday.“The Board of Control for Cricket in India (BCCI) acknowledges the high demand for tickets for the ICC Men’s Cricket World Cup 2023,” the statement read.“After discussions with the hosting state associations, the BCCI has announced the release of approximately 400,000 tickets for the highly anticipated tournament. This measure is aimed at accommodating as many passionate cricket fans as possible, ensuring their participation in this historic event.“Cricket enthusiasts from around the world can now secure their seats to witness the cricketing extravaganza of the year. Fans are encouraged to act promptly to secure their tickets, as tickets are expected to be in high demand, given the immense global interest in the event.“The general sale of tickets for all matches of the ICC Men’s Cricket World Cup 2023 will commence from 8:00 PM IST onwards on September 8, 2023,” the statement added.Asia Cup 2023 Full Schedule | Asia Cup 2023 Complete Results | Asia Cup 2023 Full CoverageThe general public can purchase tickets by visiting the official ticketing website of the ICC Men’s Cricket World Cup 2023BCCI also added that, “Fans will be notified of the further sale of tickets in the next phase in due course.”“The BCCI deeply acknowledges that fans are the heartbeat of the tournament, and their unwavering passion, engagement, and contributions are pivotal to the success of the ICC Men’s Cricket World Cup 2023,” BCCI added in their statement.This comes after an exclusive report by News18 Cricketnext that found some tickets for the marquee India vs Pakistan match in the 2023 World Cup is being sold at Rs 19,51,580 each on third-party websites.ALSO READ | World Cup 2023 Match Ticket Prices: IND vs PAK for Rs 19,00,000 Per Pass; Rs 9,31,295 for IND vs AUSTicket sales began with non-India games from August 24 for Mastercard users while general public got to access tickets on sales from August 25, followed by India matches sales from August 29 to September 3. The sales for semi-final and final tickets will happen on September 14 and 15.The first lot of tickets for the World Cup, including the marquee India-Pakistan clash in Ahmedabad was been sold out within an hour after ICC’s ticketing partner opened its exclusive pre-sale window.The BCCI and ICC had opted for a staggered sale process to offer a smooth experience to the fans after revising the schedule of as many as nine games after announcing the full schedule in June.In contrast, the schedule of the previous World Cup in England and even the 2011 edition in India was announced well in advance.(With inputs from Agencies)</t>
   </si>
   <si>
     <t>cricketnext</t>
   </si>
   <si>
-    <t>https://www.news18.com/cricketnext/shubman-gill-down-with-fever-doubtful-for-indias-world-cup-opener-against-australia-report-8605123.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shraddha Kapoor, Kapil Sharma, Huma Qureshi, Hina Khan Summoned By ED In Mahadev Betting App Case </t>
-  </si>
-  <si>
-    <t>Comedian Kapil Sharma, Bollywood actors Shraddha Kapoor and Huma Qureshi as well as television star Hina Khan have been summoned by the Enforcement Directorate (ED) in connection with the Mahadev betting app case. They were issued summons a day after the central agency summoned actor Ranbir Kapoor, and have been directed to appear before the ED on October 6.News18 previously reported that more than 17 Bollywood stars are under the scanner in the case.Mahadev app promoters Saurabh Chandrakar and Ravi Uppal allegedly used money earned from the betting to pay celebrities. According to ED sources, more than a dozen A-listers, including Bollywood and Tollywood actors as well as sportspersons, are under the scanner. Ranbir Kapoor is allegedly the highest paid star among these names and advertised for the app on social media.More than 100 influencers, who promoted the app, will eventually be summoned by the central agency. Moreover, more than 14 celebrities, who attended a wedding event organised by the app promoters in Dubai, will also be summoned.Meanwhile, News18 learned earlier in the evening that Ranbir’s team reached out to the ED and requested for two weeks’ time to appear before the agency. The ED has “not confirmed any communication yet” with his team.A source also said Ranbir has not been summoned as an accused. “Ranbir Kapoor has been summoned to understand the betting business transactions. At this point, he has not been summoned as accused. His questioning is important to know his knowledge about the money sources he received. It will possibly indicate the plans of the promoters and their association,” the source said .“Ranbir Kapoor may not be part of conspiracy but very important to understand the scam,” the source added.</t>
-  </si>
-  <si>
-    <t>movies</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/movies/kapil-sharma-huma-qureshi-and-hina-khan-summoned-by-ed-in-mahadev-betting-app-case-8604733.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wamiqa Gabbi Goes Bold for Sex Scenes In Khufiya, Creates Stir On Internet, Videos Go Viral </t>
-  </si>
-  <si>
-    <t>Wamiqa Gabbi has sent the internet into a frenzy quite literally, thanks to her steamy scenes in Vishal Bhardwaj’s latest Netflix movie Khufiya. In the movie, Wamiqa plays actor Ali Fazal’s wife, named Charu, who is clueless about her husband’s misdemeanours. Soon after Khufiya dropped on Netflix on Thursday, netizens began sharing Wamiqa’s steamy scenes on X, formerly known as Twitter. In one of the videos, Wamiqa’s Charu can be seen grooving to the popular song ‘Ye Jawani Hai Diwani’ in a sexy lingerie. While another video shows her sex scene with Ali Fazal. Sharing the video of Wamiqa’s dance, a user wrote, “Wamiqa Gabbi is so hot.” Another user wrote, “Vibe with Wamiqa Gabbi.”Wamiqa Gabbi is so hot  #WamiqaGabbipic.twitter.com/vcIRDEqtiw— GLAM SLOT (@GlamSlot) October 5, 2023Vibe with wamiqa Gabbi pic.twitter.com/2BbtKI4oZi— – (@Dusky4you) October 5, 2023Wamiqa has been getting immense praise for her bold and nuanced performance in Khufiya. News18 Showsha’s review of Khufiya read: “The performer who really stood out in Khufiya was Wamiqa. She was very good as a woman who was clueless in the beginning about her husband’s misdemeanours and later transforms to help Krishna Mehra (played by Tabu) in faraway South Dakota. An amazing arc that is bound to fetch her greater roles as we go along. Ali Fazal was not bad, really, torn between his love for his family and the dirty work he does for money, showering Charu with expensive jewellery.”Khufiya is a tale of love, loyalty, revenge and betrayal. It’s about a R&amp;AW agent who is on a mission to nab an individual, who is leaking confidential information from the department.With Tabu being the investigator of the case and Ali Fazal being her prime suspect, the story promises multiple layers of mystery behind the prime conspirator. Whether the identity of the supposed ‘traitor’ is as easy to find out, that’s for the viewers to determine.</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/movies/wamiqa-gabbi-goes-bold-for-sex-scenes-in-khufiya-creates-stir-on-internet-videos-go-viral-8605096.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Salman Khan ENDS 9-Year Feud With Arijit Singh; Singer Spotted at Tiger 3 Star's House, See Video </t>
-  </si>
-  <si>
-    <t>Bollywood superstar Salman Khan seems to have forgiven singer Arijit Singh after nine years. On Wednesday night, Arijit Singh was spotted exiting Salman’s Galaxy apartment in Mumbai. As soon as the video surfaced on the internet, fans began speculating if the duo finally buried hatchet after nearly a decade-long feud. The video was shared by a Salman Khan fan on X, formerly known as Twitter. Posting the clip, the fan wrote, “Arijit Singh Spotted at Salman Khan’s house Today. What’s happening??” Another fan wondered if the meeting took place for any musical collaboration in Salman’s upcoming movie Tiger 3 or his untitled film with Vishnuvardhan and Karan Johar.Arijit singh Spotted at #SalmanKhan's house Today. What's happening?? #Tiger3 #Tiger3Trailerpic.twitter.com/tLPKUnEN2p— MASS (@Freak4Salman) October 4, 2023Salman Khan and Arijit Singh’s ugly fight happened during an award function in 2014. Salman Khan was hosting the event when Arijit Singh came on the stage to receive the award. “Tu hai winner (You’re the winner)?” Salman told Arijit, who was dressed rather casually. To this, the singer replied, “Aap logon ne sula diya (You all put me to sleep).” Following this, Arijit’s songs were removed from Salman’s films including Bajrangi Bhaijaan, Kick and Sultan. In 2016, Arijit had issued a public apology to Salman, pleading him to retain his version of song in Sultan. The singer wrote in his post that he tried to apologise a number of times to Salman through text and mail but to no avail. “…you (Salman) are mistaken about the fact that I insulted you.” About Sultan’s song, he wrote, “I have sung enough songs sir. But I want to retire with at least one song of you keeping in my library. Please do not take away this feeling.”</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/movies/salman-khan-ends-9-year-feud-with-arijit-singh-singer-spotted-at-tiger-3-star-house-see-video-8603498.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shehnaaz Gill, Guru Randhawa Spark DATING Rumours, Pose Together On Red Carpet; See Pics, Video </t>
-  </si>
-  <si>
-    <t>Shehnaaz Gill and Guru Randhawa have sparked dating rumours after the singer attended the screening of the former Bigg Boss 13 contestant’s upcoming movie ‘Thank You For Coming’ on Tuesday night. Needless to say, Guru came to support Shehnaaz even as the duo posed together for the paparazzi on the red carpet. Shehnaaz couldn’t stop blushing as the paps teased her about her chemistry with the singer.For the premiere night, Shehnaaz dazzled in a stunning pink dress, while Guru looked dapper in an all-black ensemble. Their joint appearance on the red carpet left fans wondering if the two were dating. One user wrote, “The only man she looks good with after Sidharth Shukla.” Another one said, “Wow yaar Guru with Sana.” “Finally GurNaaz meet up,” wrote a third user.A post shared by Viral Bhayani (@viralbhayani)Guru had taken the internet by storm after he dropped a video with Shehnaaz on Instagram in October last year, where the two danced together at a Diwali party. Calling Shehnaaz India’s favourite, Guru had written in the caption, “With India’s fav @shehnaazgill. Happy Diwali.”Shehnaaz rose to fame with her stint in Bigg Boss 13, where her bond with late Sidharth Shukla was loved by the viewers. In 2017, she made her debut in the Punjabi film industry with Sat Shri Akaal England and later starred in Kala Shah Kala, Daaka and Honsla Rakh alongside Diljit Dosanjh and Sonam Bajwa. This year, Shehnaaz made her Bollywood debut with Salman Khan starrer Kisi Ka Bhai Kisi Ki Jaan. She is currently awaiting the release of Thank You For Coming, which also stars Bhumi Pednekar, Kusha Kapila and Dolly Singh.She will also be seen in a film by Sajid Khan. John Abraham, Riteish Deshmukh and Nora Fatehi are also a part of the family entertainer.</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/movies/shehnaaz-gill-guru-randhawa-spark-dating-rumours-pose-together-on-red-carpet-see-pics-video-8602231.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Virat Kohli Flies to Mumbai for Personal Reason, Will Rejoin India Squad on Monday: Report </t>
-  </si>
-  <si>
-    <t>The Indian cricket team reportedly arrived in Thiruvananthapuram for their second and final warm-up fixture of the ICC Cricket World Cup 2023 on Sunday but without their star batter Virat Kohli who will join a day later.While the India players flew from Guwahati to Thiruvananthapuram, Kohli took a flight to Mumbai due to personal reasons.According to Cricbuzz, Kohli will link up with the squad on Monday when they have an optional training session.“Team India will have an optional training session from 2 PM onwards at the KCA – St Xavier’s College Cricket Ground, Thiruvananthapuram, weather permitting,” the website quoted a team spokesperson as saying.Kohli is gearing up for what will be the fourth ODI world cup of his storied international career. He won the title with the Indian team in 2011 and then went on to captain them last time around in England when they made a semifinal exit.Ahead of the tournament, Kohli admitted that the past two-and-a-half years of his career have taught him a lot that includes a phase when he went without scoring a century in any form of cricket for nearly two years.“The last two and a half years have taught me a lot. Those angry celebrations are a thing of the past. I have had many suggestions, lots of advice has come my way; people were telling me I was doing this wrong, that wrong,” Kohli told ICC.“I picked out all the videos from the best time I had, same initial movement, same approach towards the ball and it was just what was happening inside my head, I wasn’t able to explain it to anyone,” he added.The Indian team is scheduled to take on the Netherlands in a practice match on Tuesday but the weather forecast is not promising. As per reports, rain is expected to impact the fixture with fears of another washout.India were scheduled to face England in Guwahati in their first warm-up match on Saturday but the contest was abandoned without a ball bowled due to rain.The Indian team will take on Australia in their world cup opener in Chennai on October 8.</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/cricketnext/virat-kohli-mumbai-personal-reason-icc-world-cup-india-squad-warm-up-match-netherlands-8599933.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dunki Plot Revealed; SRK And Rajkumar Hirani's Film Is Based On THIS India-Canada Issue? </t>
-  </si>
-  <si>
-    <t>After the massive success of Pathaan and Jawan, Shah Rukh Khan’s fans are eagerly waiting for his third release of the year – Dunki. For quite some time now, it has been said that Dunki will revolve around ‘donkey flight’ – a route used by illegal migrants to move to other countries, especially the US and Canada. However, if a recent report is to be believed, even though Dunki revolves around ‘issues of immigration’, it has nothing to do with Indians immigrating to Canada. Rather, it talks about a man who is working very hard to get a better life.“While the film does deal with the issue of immigration, it isn’t based in Canada or has anything to do with Indians based in Canada. It is a very sensitively made film that deals with a man’s journey of trying to find a better way of life and the various emotions he goes through while doing so,” a source cited by India Today claims. However, News18 Showsha cannot vouch for the authenticity of the report.Dunki is directed by Rajkumar Hirani and also stars Taapsee Pannu in the lead besides Shah Rukh Khan. Recently, SRK confirmed that Dunki is not getting pushed to next year and clarified that it is on track to release on Christmas.“I think, Mashallah, God’s been very kind. We had Pathaan. God’s been even kinder with Jawan. I always tell we started with Republic Day (January 26). It’s an auspicious day. On Janmashtami, we released Jawan. On Christmas, we will bring Dunki for you. I prioritize national integration. And whenever my film releases, it has to be Eid. I’m working hard. I’m working harder than what I worked in last 29 years. And Inshallah, I will work hard. I get happy now when people watch movies and they derive happiness out of them,” he said during the success meet of Jawan.This also means that Dunki will clash at the box office with Prabhas’ much-awaited movie, Salaar.</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/movies/dunki-plot-revealed-shah-rukh-khan-rajkumar-hirani-film-is-based-on-this-india-canada-issue-8600787.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Anushka Sharma Refuses to Pose For Cameras in New Video Amid Pregnancy Rumours; Watch </t>
-  </si>
-  <si>
-    <t>Anushka Sharma is rumoured to be pregnant again. It is reported that Anushka is preparing to welcome her second baby with Virat Kohli. The actress is yet to react to the reports. Amid the rumours, a video of one of her recent spottings has surfaced online in which Anushka was seen wearing loose clothes and seated in the passenger seat of her car. However, she wasn’t in the favour of being clicked. In a video shared by Instant Bollywood, Anushka was seen wearing a white shirt and a pair of pants. Anushka noticed the cameras clicking her and was seen signalling them not to photograph her. She also told the paparazzi a quick goodbye and left the spot. It seems like the video was shot before the claims of her pregnancy were made. Watch the video below: A post shared by Instant Bollywood (@instantbollywood)Over the weekend, a source told Hindustan Times that Anushka is expecting her second baby with Virat. “Anushka is expecting her second baby. Like the last time, they will formally share the news with the world at a later stage.”Addressing the actress’ lack of public appearances, the source claimed, “This isn’t a coincidence. She is staying away from the public eye to avoid speculation.” While the rumours had been sparked earlier, they gained momentum after Anushka’s Ganesh Chaturthi post.Another source told the publication that Anushka and Virat were recently spotted by the paparazzi outside a maternity clinic in Mumbai but requested that their photographs not be taken. “They requested the paparazzi to not publish their pictures, with a promise to make an announcement soon,” the source was quoted as saying.Anushka Sharma and Virat Kohli got married in 2017 and welcomed their daughter Vamika in January 2021. Meanwhile, on the work front, Anushka will soon be seen in Chakda’Xpress, the biography of former Indian cricketer Jhulan Goswami.</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/movies/anushka-sharma-signals-paparazzi-not-to-take-photos-amid-pregnancy-rumours-video-goes-viral-8599951.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Animal Star Ranbir Kapoor Answers Why He Never Hired A Publicist: 'PR Is the Death of...' </t>
-  </si>
-  <si>
-    <t>Ranbir Kapoor, who is celebrating his 41st birthday today, often comes under scrutiny for his controversial statements. However, the Animal star has remained unfazed by all the hullabaloo over the years, and never hired any publicist for any kind of damage control, which is a rarity for a Bollywood movie star of his stature.In an interview with Times Now in 2012, Ranbir had explained why he would not hire a PR team and how it could impact the career of an actor. “PR is the death of an actor,” he had said. “What happens is when you use PR the wrong way, you start believing it. People who plant articles about themselves or about other people, it becomes a very addictive game. And you start believing that my stardom is dependent only on how many times my face is featured on the cover of a magazine.” Ranbir continued, “I think PR is something you have to use intelligently, where your skills are concerned. You use PR intelligently when you’re really doing something. And if you don’t believe in something… if I’m going to a charity event for a PR thing, the audience sees through it. If you don’t believe in something, they’ll always see through you.”On the work front, Ranbir Kapoor is gearing up for the release of Sandeep Reddy Vanga’s Animal. Animal teaser will be unveiled today, coinciding with the actor’s birthday. It will be over two minutes long and reportedly give an insight into Ranbir’s intense character. Animal is scheduled for release on December 1 and will clash with Sam Bahadur.Rashmika Mandanna has been cast as the female lead for Animal. She will be sharing screen space with Ranbir for the first time. Anil Kapoor has also been roped in for a crucial role in the Sandeep Reddy Vanga directorial. Bobby Deol is reportedly playing the antagonist in the film.</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/movies/ranbir-kapoor-answers-why-he-doesnt-hire-publicist-says-pr-is-the-death-of-an-actor-8594890.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Priyanka Chopra Expresses Joy As Writers' Strike Comes To An End </t>
-  </si>
-  <si>
-    <t>After a series of tiring negotiations and meetings spanning numerous consecutive days, the Writers Guild of America (WGA) and the labour group representing studios and streamers have finally struck a tentative deal on a new contract. This significant breakthrough has the power to bring an end to a historic 146-day writers’ strike, providing relief to the entertainment industry. Movies and TV Shows that were stalled or delayed due to the SAG AFTRA strike will now be able to resume their production schedules. As news of the agreement broke, Hollywood celebrities, including Priyanka Chopra joined in the celebrations, applauding the efforts of those who played a crucial role in making this agreement possible and marking the beginning of a new chapter in Hollywood.The Citadel actress couldn’t hide her joy and took to Instagram to express her excitement, she wrote, “Bravo. This is the result of a committed, unified stance. Hope that this positive momentum can drive closure on the SAG AFRA discussions too. After several long consecutive days of negotiations, the WGA and the AMPTP have reached a tentative deal on a new contract in a major development that could precipitate the end of a historic, 146 day.” A post shared by Priyanka (@priyankachopra)As per Hollywood Reporter, the Writers Guild of America shared the news to strike captains via email on Sunday night, followed by an announcement to all its members. The message read, “We have reached a tentative agreement on a new 2023 MBA, which is to say an agreement in principle on all deal points, subject to drafting final contract language.” Meanwhile, the Alliance of Motion Picture and Television Producers (AMPTP) also confirmed the historic agreement in a joint statement with the WGA.The parties have decided to lock in a three-year agreement, but it will require further approval by the WGA members to become official. While the exact details of the deal, which impacts approximately 11,500 WGA members, are currently undisclosed, they are expected to be revealed in the coming days as the union aims to garner support from its members for the agreement.These negotiations took place over five consecutive days during the weekend, preventing them from becoming the longest in the union’s history. The previous record was established in 1988 when the WGA went on strike against Hollywood companies for a total of 154 days.The production of Priyanka Chopra’s project Heads Of State, which was previously halted due to the strike, is now set to resume. This Prime Video film also stars Idris Elba and John Cena, with Ilya Naishuller directing the project. Additionally, the actress is set to share the screen with Guardians of The Galaxy star Chris Pratt in a film titled Cowboy Ninja Viking.</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/movies/priyanka-chopra-expresses-joy-as-writers-strike-comes-to-an-end-8592101.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tamannaah Bhatia Sizzles In Black, Gives Tight Hug To Rajinikanth At Jailer Party, Video Goes Viral </t>
-  </si>
-  <si>
-    <t>Rajinikanth starrer Jailer was loved by fans. The film received a lot of love from the audience and critics. Well, the song Kaavaalaa was also equally hit among the masses. On Sunday night, the cast and crew celebrated the success of the film and were seen coming together. Tamannaah Bhatia took to her social handle and shared a video showing glimpse of the party night. She was looking hot in black colour gown.In the video, Tamannah was seen wearing a classic black colour body hugging gown. She completed the look with a bun and kept her makeup to minimalistic. Her look was perfect for any night event. She even writes a long note thanking everyone for showering so much love on the film. “Last night we celebrated! A culmination of vision, passion and teamwork! Team Jailer… it has been an absolute honor and pleasure to be a part of this film. Congratulations to the entire cast &amp; crew. A special shout out to the man himself @rajinikanth sir… working with you has been truly memorable. @nelsondilipkumar sir… Thank you for everything! Let’s keep creating great stories together! everyone at @sunpictures, looking forward to many more collaborations together. And finally… thank you to the audience for giving this film and ‘Kaavaalaa’ so much love!,” it read.Watch the video here: A post shared by Tamannaah Bhatia (@tamannaahspeaks)As soon as she shared the video, fans started dropping comment. One of the fans wrote, “I have barely seen an actor who has the guts to make public appearance exactly the way he is. No wig no hair dyes no fashionable cloth no attitude.” Another wrote, “Congrats #jailer team.”Recently, director Nelson Dilipkumar also took to his Instagram handle to share a heartfelt gratitude note that he had penned for the Rajinikanth and the film’s entire cast and crew. Jailer has earned more than Rs. 340 crore all India nett. It surpassed the earnings of Mani Ratnam’s Ponniyin Selvan: I and is currently the second-highest-grossing Tamil movie.</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/movies/tamannaah-bhatia-sizzles-in-black-gives-tight-hug-to-rajinikanth-at-jailer-party-video-goes-viral-8581609.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alia Bhatt Looks Hot In Blue Dress, Joins BFF Akansha Kapoor’s Birthday Bash With Shaheen; See Pics </t>
-  </si>
-  <si>
-    <t>Alia Bhatt has just returned from her New York vacation with Ranbir Kapoor. The couple were spotted at the airport. Well, there is no doubt she is one of the most famous celebrities. She enjoys a huge fan following. Alia is always followed for her impeccable fashion sense. Well, keeping up with the trend she was seen joining BFF Akansha Ranjan Kapoor’s birthday party with sister Shaheen. The pictures have gone viral on social media.For the party, Alia was seen wearing an electric blue fringe-detailed mini-dress with a plunging neckline. She completed her look with dewy makeup, a couple of rings, and transparent heels. Needless to say Alia was rocking the attire and was looking hot. Her sister Shaheen on the other hand looked elegant in a red full-length dress. Both sisters posed for the camera before heading for the party. Many other celebrities including Malaika Arora, and Athiya Shetty were also seen joining the bash.Take a look at the photos here:On Sunday, a video surfaced in which Alia Bhatt’s car was mobbed by a group of women. Sharing the viral clip on their feed, popular paparazzo handle Viral Bhayani captured a group of women curiously peeking through the black tinted window of an SUV, which allegedly belongs to Alia Bhatt. The video caught these women smooshing their faces against the car before the car started moving. However, News18.com cannot confirm or deny whether it was actually Alia Bhatt’s car.Talking about Alia, the actress has received a national award this year for her stellar performance in Gangubai Kathiawadi. She was last seen in Rocky Aur Rani Kii Prem Kahaani. The romantic drama was loved by fans and it emerged as a hit at the box office. Dharmendra, Shabana Azmi, Jaya Bachchan, and others were also seen in the family. The film is now available on OTT. The OTT version of the film also features an extra 10 minutes which were cut from the theatrical version due to time constraints. Apart from this, the actress was also seen in the Hollywood film Heart Of Stone. Well, Alia has not announced her next project till now.</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/movies/alia-bhatt-looks-hot-in-blue-dress-joins-bff-akansha-kapoors-birthday-bash-with-shaheen-see-pics-8581574.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shraddha Kapoor IGNORES Rashmika Mandanna? Viral Video Has Fans Thinking If There's Bad Blood; Watch </t>
-  </si>
-  <si>
-    <t>Shraddha Kapoor appeared to have ignored Rashmika Mandanna at the Ambani Ganpati Puja that took place on Tuesday night. Shraddha and Rashmika were among the many stars who were invited to the grand Ganpati puja. For the starry night, Shraddha stepped out wearing a pearl white outfit. She opted for a traditional churidaar and tied her hair up into a neat bun. She completed her hairdo with jasmine flowers. On the other hand, Rashmika was seen wearing a saree for the night. In a video shared by Filmygyan on Instagram, Shraddha and Rashmika’s paths crossed outside the puja venue. However, fans noticed that Shraddha did not greet Rashmika and accused her of ignoring her. Fans took to the comments section and shared their thoughts. “Has Shraddha Kapoor intentionally ignored Rashmika Mandanna?” asked a social media user on X (previously Twitter). “So Shradha and Rashmika don’t even wave hi or even smile to eachother???” asked another. However, a few fans also defended them, suggesting that they might have not known each other. “She might have not recognized her,” a fan said. “She might not kno who Rashmika Mandana is,” added another. “Shraddha was leaving and she was looking outside and paps were busy taking Rashmika pictures …Shraddha didn’t had any eye contact as she was leaving …it’s accidental..pls stop this,” added another. Watch the video below: A post shared by F I L M Y G Y A N (@filmygyan)The Ganesh Chaturthi puja hosted by the Ambani family took place at their home, Antilia, in Mumbai. The puja was attended by several stars. These included Salman Khan, Shah Rukh Khan along with his wife Gauri Khan and daughter Suhana Khan, Deepika Padukone, Ranveer Singh, Alia Bhatt, and Ayan Mukerji among others. A video revealed that Rashmika met with Deepika Padukone and Ranveer Singh. On the work front, Shraddha will be seen in a few projects. She is reportedly a part of Chandu Champion, headlined by Kartik Aaryan. She is also set to return for Stree 2. On the other hand, Rashmika’s next Bollywood film is Ranbir Kapoor’s Animal.</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/movies/shraddha-kapoor-ignores-rashmika-mandanna-viral-video-has-fans-believing-theres-bad-blood-watch-8584285.html</t>
+    <t>https://www.news18.com/cricketnext/bcci-release-400000-more-tickets-sales-next-phase-icc-mens-cricket-world-cup-2023-8566823.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rashmika Mandanna's New Photo Sparks Live-In Rumours With Vijay Deverakonda, Fans Go Crazy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rashmika Mandanna has fans convinced that she is reportedly living with Vijay Deverakonda. According to a viral post on Reddit, Rashmika’s recent Instagram photo was taken at Vijay’s apartment’s terrace in Hyderabad. In the photo, Rashmika can be seen all smile as she looks gorgeous in a stunning saree. However, what grabbed netizens’ attention was the backdrop in the photo which looked quite similar to that of Vijay’s recent picture, where he is striking a pose on the terrace of his bungalow.As soon as the post went viral on the internet, fans began speculating that the duo was indeed together. One fan commented, “I’ve been saying they’ve been together for at least 3-4 years now.” Another one said, “Heard that they are engaged. Not sure how true this is.” Meanwhile, Vijay recently said that he believed in the institution of marriage. He confessed that he sees himself as a married man in the near future. However, he remained tight-lipped about his partner.At the trailer launch of Kushi, Vijay said, “I think I have become comfortable with the idea. Before marriage was a word that no one was allowed to say around me. It would immediately agitate and irritate me. But now, I am having conversations about it. I am enjoying watching my friends being married. I am enjoying the happy marriages and I am enjoying the troubled marriages, everything is entertaining. But I hope to have a married life of my own and that’s chapter in life that everyone should experience.”Rashmika Mandanna and Vijay Deverakonda often grab headlines for their romance rumours. Their undeniable chemistry has been the topic of discussion on social media ever since they starred together in movies like Geetha Govindam and Dear Comrade. </t>
+  </si>
+  <si>
+    <t>https://www.news18.com/movies/rashmika-mandanna-new-photo-sparks-live-in-rumours-with-vijay-deverakonda-fans-go-crazy-8565618.html</t>
   </si>
   <si>
     <t xml:space="preserve"> Malaika Arora Shares Cryptic Post Amid Breakup Rumours, 'If You Don't Like How She Is Acting...' </t>
@@ -160,16 +166,25 @@
     <t>https://www.news18.com/movies/malaika-arora-shares-cryptic-post-amid-breakup-rumours-with-arjun-kapoor-8564271.html</t>
   </si>
   <si>
-    <t xml:space="preserve"> Petrol, Diesel Fresh Prices Announced For September 27: Check Fuel Rates In Your City </t>
-  </si>
-  <si>
-    <t>Petrol, and Diesel Prices on September 27: Indian oil companies have kept the petrol and diesel prices on Wednesday, September 27, in all major cities almost at the same level with minor tweaks. These, however, vary from state to state due to value-added tax (VAT), freight charges, local taxes, etc.In West Bengal, petrol has become costlier by 42 paise and diesel by 39 paise. There is an increase of 25 paise in the price of petrol and diesel in Uttar Pradesh. Petrol has become costlier by 32 and 30 paise in Maharashtra. Apart from this, prices of petrol and diesel have increased in many other states/union territories including Kerala, Jammu and Kashmir, Tamil Nadu and Telangana. In Rajasthan, petrol has become cheaper by 19 paise and diesel by 17 paise. The prices of petrol and diesel have also been reduced in Haryana.At present, petrol in Delhi is being sold at Rs 96.72 a litre while diesel is being sold at Rs 89.62 a litre. Whereas in Mumbai, petrol is available at Rs 106.31 and diesel at Rs 94.27 per litre. While petrol in Kolkata is Rs 106.03 and diesel is Rs 92.76 per litre. On the other hand, petrol is being sold at Rs 102.63 and diesel at Rs 94.24 per litre in Chennai.In India, oil marketing companies (OMCs) such as Indian Oil, Bharat Petroleum and Hindustan Petroleum determine petrol and diesel prices. This is done on a daily basis, and rates are determined in accordance with the price of crude oil throughout the world.Why do fuel prices vary across states?How to Check Petrol, and Diesel Prices City-Wise?You can also know the daily rate of petrol and diesel through SMS. Indian Oil customers can get information by sending RSP and their city code to 9224992249 and BPCL customers can get information by sending an SMS to 9223112222 by typing RSP and their city code. Whereas, HPCL consumers can know the price by sending HPPrice and their city code to 9222201122.</t>
+    <t xml:space="preserve"> Salman Khan Turns Heads at Gadar 2 Success Party, Teaches Kartik Aaryan How To Pose; Watch Video </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salman Khan did not shy away from teaching Kartik Aaryan how to pose on the red carpet of the Gadar 2 success party. On Saturday night, the Tiger 3 star was spotted at the Gadar 2 bash. The superstar was seen wearing a black shirt with a pair of denim pants. While he posed for a few solo photos, Salman was soon jointed by Kartik Aaryan. Dressed in a mustard colour shirt and a pair of black pants, Kartik stood beside Salman and they posed for the camera. However, it seemed like Salman was not impressed with his pose. In a video now going viral, Salman was seen teaching Kartik how to strike a powerful pose. Kartik followed his lead and tried recreating his pose but soon broke into splits, leaving Salman smiling. Watch the video below: A post shared by Voompla (@voompla)Salman joined other superstars such as Shah Rukh Khan and Aamir Khan. The trio was spotted making their way to the party at different times of the night. While Shah Rukh and Aamir were seen posing with Sunny after the party, Salman wasn’t spotted with Sunny on the red carpet. Nevertheless, our filmy hearts were jumping with joy to see the film industry come together to celebrate Gadar 2’s success. Meanwhile, Kartik also made heads turn when he was spotted leaving the party with ex-girlfriend Sara Ali Khan and Kriti Sanon. In a video going viral, Kartik and Sara were seen giving each other a warm hug before they headed to their cars. A post shared by Manav Manglani (@manav.manglani)Gadar 2 has done phenomenal business at the box office. The film is eyeing the Rs 500 crore club at the box office. Starring Sunny Deol in the lead, Gadar 2 is the second biggest blockbuster of the year, after Pathaan. </t>
+  </si>
+  <si>
+    <t>https://www.news18.com/movies/salman-khan-turns-heads-at-gadar-2-success-party-teaches-kartik-aaryan-how-to-pose-watch-video-8561728.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Petrol, Diesel Fresh Prices Announced For August 30: Check Fuel Rates In Your City </t>
+  </si>
+  <si>
+    <t>Petrol, and Diesel Prices on August 30: The price of Petrol and Diesel remained the same on Tuesday, August 30 across major cities like New Delhi, Kolkata, Mumbai, and Chennai. The petrol and diesel rates for each day, whether new or constant, are announced at 6 am on the day. These, however, vary from state to state due to value-added tax (VAT), freight charges, local taxes, etc.Petrol has become costlier by 37 paise and diesel by 34 paise in Bihar. Petrol and diesel have become costlier by 47 paise in Chhattisgarh. The price of petrol diesel has also increased in Himachal Pradesh, Madhya Pradesh, Kerala and Odisha. On the other hand, petrol and diesel have become cheaper by 70 paise in Gujarat. Petrol has become cheaper by 89 paise and diesel by 86 paise in Maharashtra. Similarly, petrol has become cheaper by 51 paise and diesel by 49 paise in Punjab. Petrol-diesel has also become cheaper in UP.At present, petrol in Delhi is being sold at Rs 96.72 a litre while diesel is being sold at Rs 89.62 a litre. Whereas in Mumbai, petrol is available at Rs 106.31 and diesel at Rs 94.27 per litre. While petrol in Kolkata is Rs 106.03 and diesel is Rs 92.76 per litre. On the other hand, petrol is being sold at Rs 102.63 and diesel at Rs 94.24 per litre in Chennai.In India, oil marketing companies (OMCs) such as Indian Oil, Bharat Petroleum and Hindustan Petroleum determine petrol and diesel prices. This is done on a daily basis, and rates are determined in accordance with the price of crude oil throughout the world.Why do fuel prices vary across states?How to Check Petrol, and Diesel Prices City-Wise?You can also know the daily rate of petrol and diesel through SMS. Indian Oil customers can get information by sending RSP and their city code to 9224992249 and BPCL customers can get information by sending an SMS to 9223112222 by typing RSP and their city code. Whereas, HPCL consumers can know the price by sending HPPrice and their city code to 9222201122.</t>
   </si>
   <si>
     <t>business</t>
   </si>
   <si>
-    <t>https://www.news18.com/business/petrol-diesel-fresh-prices-announced-for-september-27-check-fuel-rates-in-your-city-8593484.html</t>
+    <t>https://www.news18.com/business/petrol-diesel-fresh-prices-announced-for-august-29-check-fuel-rates-in-your-city-2-8556439.html</t>
   </si>
   <si>
     <t xml:space="preserve"> Kushi: Samantha Ruth Prabhu and Vijay Deverakonda's Emotional Climax Leaked? Here's What We Know </t>
@@ -181,49 +196,34 @@
     <t>https://www.news18.com/movies/kushi-samantha-ruth-prabhu-and-vijay-deverakondas-emotional-climax-leaked-heres-what-we-know-8554907.html</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ranveer Singh, Deepika Padukone Cannot Stop Looking At Each Other, Wish Fans Happy Ganesh Chaturthi; Photos </t>
-  </si>
-  <si>
-    <t>Bollywood’s power couple, Ranveer Singh and Deepika Padukone on Tuesday shared heartwarming and adorable photos from Ganesh Chaturthi celebrations. The couple, known for their sizzling chemistry, melted hearts with their loving gazes and warm wishes for the auspicious occasion. In no time the pictures went viral on social media. Many other celebrities also wished fans happy Ganesh Chaturthi earlier.In a series of photos, shared on social media, Ranveer Singh and Deepika Padukone were seen looking at each other and smiling. Deepika is wearing red colour ethnic wear with smokey eye makeup. She opted for red-toned stud earrings. While Ranveer is wearing a green colour kurta with red colour dupatta. Their radiant smiles for each other is looking very cute. “Wishing you &amp; your loved ones a very Happy Ganesh Chaturthi!” read the caption.Take a look here: A post shared by दीपिका पादुकोण (@deepikapadukone)Anushka Sharma also wished fans. Anushka is wearing a golden and red colour combination saree with her hair tied in a bun. She has opted for subtle makeup. Virat opted for white colour ethnic wear. Earlier in the day, Ajay Devgn also shared a video on his Instagram handle where he is seeking blessings from Lord Ganesh.  The caption read, “Dukh Harta, Sukh Karta, Buddhi Vidhata. Not only this day, may every day begins with Bappa’s blessings. Happy Ganesh Chaturthi to all (folded hand emoji). Ganpati Bappa Moreya!!”Akshay Kumar took to Twitter and wrote, “As we welcome Lord Ganesha in our homes and hearts today, may He remove all obstacles and fill our lives with joy and prosperity. Ganpati Bappa Morya! Wish you all a very Happy Ganesh Chaturthi (folded hand emoji)”.On the work front, Deepika recently had an extended cameo in Shah Rukh Khan’s Jawan. The actress will soon be seen in Fighter with Hrithik Roshan and Anil Kapoor. She also has Kalki 2898-AD with Amitabh Bachchan and Prabhas. Ranveer Singh will be seen in Don 3.</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/movies/ranveer-singh-deepika-padukone-cannot-stop-looking-at-each-other-wish-fans-happy-ganesh-chaturthi-photos-8584060.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Can Rahul's OBC Push Pull Votes for Congress, as It Hunts for Winnable Candidates in Poll-bound States? </t>
-  </si>
-  <si>
-    <t>Rahul Gandhi’s OBC fixation has now put the Congress in a spot, especially in poll-bound states. While his push for a nationwide caste census means the party would need to walk the talk and ensure it gives the most election tickets to candidates from the Other Backward Class (OBC) and other disadvantaged groups, it also has raised a question– would they be winnable?There is no denying that it’s “do or die” for the Congress in these state polls as it feels a win here could raise its chips in 2024. But history has shown that the Congress’s experiments with caste politics have not always met with success.In the previous Telangana polls, the party gave tickets to the Reddy community and OBCs, but both failed to make the cut. The state has a nearly 50% OBC population and the last time the Congress gave tickets to 24 candidates from the community for the assembly polls. But now the Telangana OBC political affairs unit in a meeting with the top Congress leadership has conveyed that the party must practice what it preaches.“If Rahul Gandhiji is talking about OBC reservation then he should give tickets to at least 50% of them. But the worry is that can they win? Where will the Congress get those winnable candidates from?” said a party insider.Ponnam Prabhakar, an OBC leader and working president of the Telangana Pradesh Congress Committee, told News18, “Things are changing and we think this time the Congress must increase the number of tickets being given to OBCs. Rahulji has given support to the OBCs.”However, sources say not many leaders are in agreement. While Abhishek Singhvi has been openly sceptical of this OBC push, though he had to retract a comment on the issue, in private, many like the Reddy community and upper caste leaders in the Congress are worried. They have pointed out that the BJP has done well among the OBCs and to completely turn that around just ahead of the 2024 Lok Sabha elections may not be easy.In Madhya Pradesh, the OBCs have the potential to impact the upcoming assembly polls. They constitute about 48% of the electorate in the state and the BJP has a head start with this critical vote bank. The community is unlikely to forget that in the previous polls, the Congress had given just 2% of tickets to the OBCs. As the BJP decided to woo the tribal votes, the OBCs in the state began to feel restive over the assurance of a 27% quota in government jobs from the party. The fact that the Congress has now walked into this debate with a promise has the BJP restless.More than half of Rajasthan’s population is OBC. While chief minister Ashok Gehlot belongs to the Mali community, it has little sway in the state. Jats, who come under the OBC umbrella, are an influential group here. And they have been voting for the BJP. Gehlot has been making several efforts to reach out to the Jats and many poll tickets have been promised to them this time. But the Jats never vote en bloc, so it has raised questions on whether it would help the Congress to give this Jat-OBC push in ticket distribution.Gehlot appointed a Jat, Govind Singh Dotasra, as the state Congress chief, and the BJP then made Satish Poonia the head of its local unit to counter this. In the previous polls, the Congress had given about 10% of tickets to OBC candidates. This time, Rahul Gandhi’s wish is to hike the number. But it is an election, where the Congress is not confident and is unwilling to take any risks. But will Rahul Gandhi listen?</t>
-  </si>
-  <si>
-    <t>politics</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/politics/can-rahuls-obc-push-pull-votes-for-congress-as-it-hunts-for-winnable-candidates-in-poll-bound-states-8606078.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Canada Moves Diplomats from India to Singapore, Malaysia; New Delhi Mulls More Action: Sources to News18 </t>
-  </si>
-  <si>
-    <t>Canada is moving its diplomats posted in India to Singapore and Malaysia ahead of India’s October 10 deadline, according to reports. Sources say the Canadian side tried to negotiate with India but was unsuccessful.After Justin Trudeau alleged the involvement of Indian agencies in the murder of Sikh separatist Hardeep Singh Nijjar in Canada, New Delhi asked Ottawa to pull out 41 of its diplomats to bring parity in numbers. CNN-News18 reported this earlier.According to government sources, India now wants Canada to recall more than two dozen diplomats from its mission in New Delhi.A final decision is yet to be taken, they said, but the matter has been in discussions for almost two weeks.New Delhi sees this as a downgrading of diplomatic relationships. And after the cancellation of visas, India sees no requirement for a high-strength presence of Canadian diplomats, said sources.</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/india/canada-moves-diplomats-from-india-to-singapore-malaysia-new-delhi-mulls-more-action-sources-to-news18-8605944.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IND vs AUS: Shubman Gill Feeling Better, Not Ruled Out Yet From India's WC Opener, Confirms Rahul Dravid </t>
-  </si>
-  <si>
-    <t>Team India head coach Rahul Dravid has confirmed that star opener Shubman Gill has not been ruled out yet as he is feeling better. The young batter has been diagnosed with dengue and missed the training session in Chennai ahead of India’s World Cup opener against Australia.There are doubts over Shubman’s availability for the Australia clash but Dravid has asserted that there are still 36 hours to go and the medical team is monitoring him.“Shubman Gill is feeling better, we have 36 hours to go, medical team is monitoring him, he isn’t ruled out yet,” Rahul Dravid said in the press conference on Friday.Earlier, the Board of Control for Cricket in India (BCCI) spokesperson told News18 CricketNext that the medical team is closely monitoring the star opener’s progress.“He’s under the weather, the medical team is closely monitoring him. We are hoping he gets better soon,” says the BCCI spokesperson.Shubman has been in terrific form this year and is ranked number 2 in the ICC ODI batting charts. The 23-year-old opener has scored 1230 runs in 20 matches this year and also scored a historic double century.He also scored a century against Australia in the second ODI of the three-match series prior to the World Cup.In case Shubman misses out on Sunday’s clash, India will most likely go for Ishan Kishan as the opening partner for skipper Rohit Sharma. Kishan has also been in decent touch in recent times and also opened the innings for India in first two ODIs against Australia.</t>
-  </si>
-  <si>
-    <t>cricket</t>
-  </si>
-  <si>
-    <t>https://www.news18.com/cricket/ind-vs-aus-shubman-gill-feeling-better-not-ruled-out-yet-from-indias-world-cup-opener-confirms-rahul-dravid-8606096.html</t>
+    <t xml:space="preserve"> Deepika Padukone Says 'I Don't Need To Move To Another Country...'; Priyanka Chopra Fans React </t>
+  </si>
+  <si>
+    <t>After championing South cinema and Bollywood, Deepika Padukone made her Hollywood debut in 2017 with Vin Diesel‘s XXX- Return of Xander Cage. While Priyanka Chopra was already featuring in Quantico by then, her Hollywood film debut, Baywatch, came a few months later in the same year. Netizens were quick to compare the two actresses based on their public appearances on foreign turf. A quote posted by one of Deepika’s fan accounts has now gone viral on Reddit and sparked a debate about whether Deepika was dating a dig at Priyanka or not.As per the post, Deepika said, “I have global ambitions, but much of it is being beyond a movie star. There is a lot I want to do globally as an individual. I find it fascinating and strange at the same time to think that we were almost apologetic about who we are and where we came from. We have always overcompensated because of this. I don’t feel the need to move to another country or speak the way they speak in order to be accepted. Has the journey taken longer? Yes. But I sleep better knowing I am in my culture and I did it on my own terms.”The quote was posted on the microblogging site with the caption, “Is this supposed to be another dig at Priyanka?” This question has now divided the internet. One person wrote, “PC is the only relevant Bolly star in Holly right now so subconsciously it seems to be dig coz the ‘move into another country’ and ‘speak the way they speak’ is so specific and direct lol.” Another added, “This is sad PC has only ever had good things to say about her.” “There are certain comments saying you’re pitting women against each other OP, but sigh… this does seem like a dig at PC,” one person commented.However, many others disagreed and defended Deepika against this assumption. One person wrote, “Isme Priyanka beech mein kaha aagayi??? Just to garner hate for Deepika some here just assume things.” Another added, “I don’t really see it as a dig towards PC but more as ‘I want to do things on my own terms and not go through the same hurdles again in a brand new industry, especially Hollywood’.” “How is this a dig? If you look at her Time and Cannes interviews, she’s talked a lot about India having way more potential than the West gave it credit for. I think this part is in tandem with that.”Meanwhile, Deepika Padukone and Priyanka Chopra have shared a good bond over the years. They worked together in Sanjay Leela Bhansali’s Bajirao Mastani with Ranveer Singh and developed an instant camaraderie.</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/movies/deepika-padukone-says-i-dont-need-to-move-to-another-country-priyanka-chopra-fans-react-8578160.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Furious Over Annamalai, AIADMK’s D Jayakumar Says No Alliance with BJP, Decision on Tie-up During Elections </t>
+  </si>
+  <si>
+    <t>In a setback to the Bharatiya Janata Party in Tamil Nadu ahead of the 2024 Lok Sabha elections, a senior leader of AIADMK on Monday said his party has no alliance with the BJP, saying any decision regarding the coalition will be taken during polls.However, top BJP sources said any issues between AIADMK and the state party unit will be sorted out amicably. Rumours of no alliance between two parties are untrue, they said.AIADMK’s D Jayakumar lashed out at the BJP state chief K Annamalai for his criticism of Dravidian stalwart C N Annadurai. He further said that his party workers will not tolerate any insult to the late chief minister.“Annamalai doesn’t desire an alliance with AIADMK although BJP workers want it. Should we tolerate all this criticism of our leaders? Why should we carry you? BJP can’t set foot here. Your vote bank is known. You are known because of us,” the former minister told reporters.Jayakumar said that while Annamalai had made critical remarks about AIADMK leaders including the late J Jayalalithaa, the party had sought that the BJP leader be restrained.“He is criticising Anna, Periyar and the General Secretary. No cadre would accept this. Tomorrow we have to work on the field. So without any option, we announced this. There won’t be any impact on us with this decision. We are confident of our victory,” he said.Meanwhile, Tamil Nadu BJP vice-president Narayanan Thirupathy said that the alliance between the AIADMK and the BJP is ‘intact rock solid’.The alliance between the @AIADMKOfficial &amp; the @BJP4India is intact rock solid. I regret that my interview to some channels have carried a different meaning and version on the alliance. The alliance and its functioning are decided only by the Senior leadership of @BJP4India…— Narayanan Thirupathy (@narayanantbjp) September 18, 2023In 2019, the BJP was wiped out in Tamil Nadu and its partner AIADMK was decimated to only one seat. On the other hand, the DMK-Congress alliance won 30 (Congress 8 &amp; DMK 24) out of 39 seats in the state.(with PTI, ANI inputs)</t>
+  </si>
+  <si>
+    <t>elections</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/elections/aiadmk-bjp-d-jayakumar-tamil-nadu-annamalai-nda-no-alliance-2024-lok-sabha-elections-latest-news-8582367.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IND vs AUS 2023: Ravichandran Ashwin Recalled; Rohit Sharma and Virat Kohli Rested for First Two ODIs </t>
+  </si>
+  <si>
+    <t>Ravichandran Ashwin has been recalled in India’s ODI squad for the upcoming three-match ODI series against Australia while seniors like Rohit Sharma, Virat Kohli, Hardik Pandya along with Kuldeep Yadav have been rested for the first two games. In Rohit’s absence, KL Rahul will be leading in the first two matches.The rested seniors though will be back for the final match for which the selectors have named an extended 17-man squad with Ashwin and Washington Sundar retaining their spots. Axar Patel, who picked up an injury during the Asia Cup, will miss the first two matches but has been included for the 3rd ODI subject to fitness.Ruturaj Gaikwad, Tilak Varma have been included for the first two matches as well.“He’s been consistently playing Test cricket. With guys like Ashwin having time on the field is not a concern. With the kind of experience he has, for guys like him it’s all in the head more than the body. Speaking to him, understanding him where he’s with this body. It’s not like he’s not played cricket, he’s not played the format (ODIs), has played TNPL. Games against Australia will give us a chance to see where’s he at,” India captain Rohit Sharma said on Ashwin’s recall during a media interaction on Monday night.“Rohit is taking a break. Others are getting a breather. Rohit and Virat have been around forever. Hardik has been there. Kuldeep too. They got fair amount of cricket in Asia Cup. Guys need mental break and come the third game our main players will play,” BCCI chief selector Ajit Agarkar said.India vs Australia ODI Squad Announcement: Live UpdatesSquad for the first two ODIs: KL Rahul (Captain), Shubman Gill, Ruturaj Gaikwad, Shreyas Iyer, Ishan Kishan, Suryakumar Yadav, Ravindra Jadeja, Shardul Thakur, Jasprit Bumrah, Mohammed Siraj, Mohammed Shami, Tilak Varma, Prasidh Krishna, Ravichandran Ashwin and Washington SundarSquad for the 3rd ODI: Rohit Sharma (c), Shubman Gill, Virat Kohli, Shreyas Iyer, KL Rahul, Ishan Kishan, Suryakumar Yadav, Ravindra Jadeja, Shardul Thakur, Jasprit Bumrah, Siraj, Mohammed Shami, Hardik Pandya, Kuldeep Yadav, Axar Patel  (subject to fitness), Ravichandran Ashwin, Washington SundarAustralia squad for the series: Pat Cummins (captain), Sean Abbott, Alex Carey (wicketkeeper), Nathan Ellis, Cameron Green, Josh Hazlewood, Josh Inglis, Spencer Johnson, Marnus Labuschagne, Mitchell Marsh, Glenn Maxwell, Tanveer Sangha, Matt Short, Steve Smith, Mitchell Starc, Marcus Stoinis, David Warner, Adam ZampaThe Indian cricket team has headed home after a comprehensive win over Sri Lanka in the Asia Cup final and is expected to reassemble for the series against Australia in Mohali on September 20.India vs Australia, 1st ODI: 22 September 2023 (Friday), 1:30 PM in MohaliIndia vs Australia, 2nd ODI: 24 September 2023 (Sunday), 1:30 PM in IndoreIndia vs Australia, 3rd ODI: 27 September 2023 (Wednesday), 1:30 PM in Rajkot</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/cricketnext/india-vs-australia-2023-odi-squad-announcement-rohit-agarkar-ashwin-shreyas-kohli-siraj-gill-bumrah-pandya-axar-8582679.html</t>
   </si>
 </sst>
 </file>
@@ -624,245 +624,245 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>69</v>
